--- a/Input Data/DevTesting/DevTesting_IC.avg.xlsx
+++ b/Input Data/DevTesting/DevTesting_IC.avg.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sabaker\Projects\Models\MTOM\MTOM_Dir\DevTesting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sabaker\Projects\Models\MTOM\MTOM_Dir\Input Data\DevTesting\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="49">
   <si>
     <t>NaN</t>
   </si>
@@ -505,10 +505,10 @@
   <dimension ref="A1:Z412"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="N47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O23" sqref="O23"/>
+      <selection pane="bottomRight" activeCell="W56" sqref="W56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4729,98 +4729,287 @@
         <v>0</v>
       </c>
       <c r="U62">
-        <v>1394895</v>
+        <v>1447499</v>
       </c>
       <c r="V62">
         <v>577939</v>
       </c>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A63" s="4"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
+      <c r="A63" s="4">
+        <v>44835</v>
+      </c>
+      <c r="B63" t="s">
+        <v>0</v>
+      </c>
+      <c r="C63" t="s">
+        <v>0</v>
+      </c>
+      <c r="D63" t="s">
+        <v>0</v>
+      </c>
+      <c r="E63" t="s">
+        <v>0</v>
+      </c>
+      <c r="F63" t="s">
+        <v>0</v>
+      </c>
+      <c r="G63" t="s">
+        <v>0</v>
+      </c>
+      <c r="H63" t="s">
+        <v>0</v>
+      </c>
+      <c r="I63" t="s">
+        <v>0</v>
+      </c>
+      <c r="J63" t="s">
+        <v>0</v>
+      </c>
+      <c r="K63" t="s">
+        <v>0</v>
+      </c>
+      <c r="L63" t="s">
+        <v>0</v>
+      </c>
+      <c r="M63" t="s">
+        <v>0</v>
+      </c>
+      <c r="N63" t="s">
+        <v>0</v>
+      </c>
+      <c r="O63" t="s">
+        <v>0</v>
+      </c>
+      <c r="P63" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>0</v>
+      </c>
+      <c r="R63" t="s">
+        <v>0</v>
+      </c>
+      <c r="S63" t="s">
+        <v>0</v>
+      </c>
+      <c r="T63" t="s">
+        <v>0</v>
+      </c>
+      <c r="U63">
+        <v>1447499</v>
+      </c>
+      <c r="V63">
+        <v>554752</v>
+      </c>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A64" s="4"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A65" s="4"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64" s="4">
+        <v>44866</v>
+      </c>
+      <c r="B64" t="s">
+        <v>0</v>
+      </c>
+      <c r="C64" t="s">
+        <v>0</v>
+      </c>
+      <c r="D64" t="s">
+        <v>0</v>
+      </c>
+      <c r="E64" t="s">
+        <v>0</v>
+      </c>
+      <c r="F64" t="s">
+        <v>0</v>
+      </c>
+      <c r="G64" t="s">
+        <v>0</v>
+      </c>
+      <c r="H64" t="s">
+        <v>0</v>
+      </c>
+      <c r="I64" t="s">
+        <v>0</v>
+      </c>
+      <c r="J64" t="s">
+        <v>0</v>
+      </c>
+      <c r="K64" t="s">
+        <v>0</v>
+      </c>
+      <c r="L64" t="s">
+        <v>0</v>
+      </c>
+      <c r="M64" t="s">
+        <v>0</v>
+      </c>
+      <c r="N64" t="s">
+        <v>0</v>
+      </c>
+      <c r="O64" t="s">
+        <v>0</v>
+      </c>
+      <c r="P64" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>0</v>
+      </c>
+      <c r="R64" t="s">
+        <v>0</v>
+      </c>
+      <c r="S64" t="s">
+        <v>0</v>
+      </c>
+      <c r="T64" t="s">
+        <v>0</v>
+      </c>
+      <c r="U64">
+        <v>1409811</v>
+      </c>
+      <c r="V64">
+        <v>566285</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A65" s="4">
+        <v>44896</v>
+      </c>
+      <c r="B65" t="s">
+        <v>0</v>
+      </c>
+      <c r="C65" t="s">
+        <v>0</v>
+      </c>
+      <c r="D65" t="s">
+        <v>0</v>
+      </c>
+      <c r="E65" t="s">
+        <v>0</v>
+      </c>
+      <c r="F65" t="s">
+        <v>0</v>
+      </c>
+      <c r="G65" t="s">
+        <v>0</v>
+      </c>
+      <c r="H65" t="s">
+        <v>0</v>
+      </c>
+      <c r="I65" t="s">
+        <v>0</v>
+      </c>
+      <c r="J65" t="s">
+        <v>0</v>
+      </c>
+      <c r="K65" t="s">
+        <v>0</v>
+      </c>
+      <c r="L65" t="s">
+        <v>0</v>
+      </c>
+      <c r="M65" t="s">
+        <v>0</v>
+      </c>
+      <c r="N65" t="s">
+        <v>0</v>
+      </c>
+      <c r="O65" t="s">
+        <v>0</v>
+      </c>
+      <c r="P65" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>0</v>
+      </c>
+      <c r="R65" t="s">
+        <v>0</v>
+      </c>
+      <c r="S65" t="s">
+        <v>0</v>
+      </c>
+      <c r="T65" t="s">
+        <v>0</v>
+      </c>
+      <c r="U65">
+        <v>1409811</v>
+      </c>
+      <c r="V65">
+        <v>586291</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A66" s="4"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A67" s="4"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A68" s="4"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A69" s="4"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A70" s="4"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A71" s="4"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A72" s="4"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A73" s="4"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A74" s="4"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A75" s="4"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A76" s="4"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A77" s="4"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A78" s="4"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A79" s="4"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A80" s="4"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>

--- a/Input Data/DevTesting/DevTesting_IC.avg.xlsx
+++ b/Input Data/DevTesting/DevTesting_IC.avg.xlsx
@@ -505,10 +505,10 @@
   <dimension ref="A1:Z412"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="N47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W56" sqref="W56"/>
+      <selection pane="bottomRight" activeCell="C18" sqref="B18:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -589,7 +589,7 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
-        <v>42979</v>
+        <v>43344</v>
       </c>
       <c r="B2" s="1">
         <v>7479.81</v>
@@ -657,7 +657,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
-        <v>43009</v>
+        <v>43374</v>
       </c>
       <c r="B3" s="1">
         <v>7478.29</v>
@@ -725,7 +725,7 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
-        <v>43040</v>
+        <v>43405</v>
       </c>
       <c r="B4" s="1">
         <v>7477.6</v>
@@ -793,7 +793,7 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
-        <v>43070</v>
+        <v>43435</v>
       </c>
       <c r="B5" s="1">
         <v>7475.84</v>
@@ -861,7 +861,7 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
-        <v>43101</v>
+        <v>43466</v>
       </c>
       <c r="B6" s="1">
         <v>7473.49</v>
@@ -929,7 +929,7 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
-        <v>43132</v>
+        <v>43497</v>
       </c>
       <c r="B7" s="1">
         <v>7491.67</v>
@@ -997,7 +997,7 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
-        <v>43160</v>
+        <v>43525</v>
       </c>
       <c r="B8" s="1">
         <v>7501.51</v>
@@ -1065,7 +1065,7 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
-        <v>43191</v>
+        <v>43556</v>
       </c>
       <c r="B9" s="1">
         <v>7499.99</v>
@@ -1133,7 +1133,7 @@
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
-        <v>43221</v>
+        <v>43586</v>
       </c>
       <c r="B10" s="1">
         <v>7497.56</v>
@@ -1201,7 +1201,7 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
-        <v>43252</v>
+        <v>43617</v>
       </c>
       <c r="B11" s="1">
         <v>7492.05</v>
@@ -1269,7 +1269,7 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
-        <v>43282</v>
+        <v>43647</v>
       </c>
       <c r="B12" s="1">
         <v>7486.61</v>
@@ -1337,7 +1337,7 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
-        <v>43313</v>
+        <v>43678</v>
       </c>
       <c r="B13" s="1">
         <v>7485.87</v>
@@ -1405,7 +1405,7 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
-        <v>43344</v>
+        <v>43709</v>
       </c>
       <c r="B14" s="1">
         <v>7485.06</v>
@@ -1473,7 +1473,7 @@
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
-        <v>43374</v>
+        <v>43739</v>
       </c>
       <c r="B15" s="1">
         <v>7483.65</v>
@@ -1541,7 +1541,7 @@
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
-        <v>43405</v>
+        <v>43770</v>
       </c>
       <c r="B16" s="1">
         <v>7482.23</v>
@@ -1609,7 +1609,7 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
-        <v>43435</v>
+        <v>43800</v>
       </c>
       <c r="B17" s="1">
         <v>7480.99</v>
@@ -1677,7 +1677,7 @@
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
-        <v>43466</v>
+        <v>43831</v>
       </c>
       <c r="B18" s="1">
         <v>7479.65</v>
@@ -1745,7 +1745,7 @@
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
-        <v>43497</v>
+        <v>43862</v>
       </c>
       <c r="B19" s="1">
         <v>7476.52</v>
@@ -1813,7 +1813,7 @@
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
-        <v>43525</v>
+        <v>43891</v>
       </c>
       <c r="B20" s="1">
         <v>7471.79</v>
@@ -1881,7 +1881,7 @@
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
-        <v>43556</v>
+        <v>43922</v>
       </c>
       <c r="B21" s="1">
         <v>7460.33</v>
@@ -1949,7 +1949,7 @@
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
-        <v>43586</v>
+        <v>43952</v>
       </c>
       <c r="B22" s="1">
         <v>7450.91</v>
@@ -2017,7 +2017,7 @@
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
-        <v>43617</v>
+        <v>43983</v>
       </c>
       <c r="B23" s="1">
         <v>7442.66</v>
@@ -2085,7 +2085,7 @@
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
-        <v>43647</v>
+        <v>44013</v>
       </c>
       <c r="B24" s="1">
         <v>7441.48</v>
@@ -2153,7 +2153,7 @@
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
-        <v>43678</v>
+        <v>44044</v>
       </c>
       <c r="B25" s="1">
         <v>7443.54</v>
@@ -2221,7 +2221,7 @@
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
-        <v>43709</v>
+        <v>44075</v>
       </c>
       <c r="B26" s="1">
         <v>7444.59</v>
@@ -2289,7 +2289,7 @@
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
-        <v>43739</v>
+        <v>44105</v>
       </c>
       <c r="B27" t="s">
         <v>0</v>
@@ -2357,7 +2357,7 @@
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
-        <v>43770</v>
+        <v>44136</v>
       </c>
       <c r="B28" t="s">
         <v>0</v>
@@ -2425,7 +2425,7 @@
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A29" s="4">
-        <v>43800</v>
+        <v>44166</v>
       </c>
       <c r="B29" t="s">
         <v>0</v>
@@ -2493,7 +2493,7 @@
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A30" s="4">
-        <v>43831</v>
+        <v>44197</v>
       </c>
       <c r="B30" t="s">
         <v>0</v>
@@ -2561,7 +2561,7 @@
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A31" s="4">
-        <v>43862</v>
+        <v>44228</v>
       </c>
       <c r="B31" t="s">
         <v>0</v>
@@ -2629,7 +2629,7 @@
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A32" s="4">
-        <v>43891</v>
+        <v>44256</v>
       </c>
       <c r="B32" t="s">
         <v>0</v>
@@ -2697,7 +2697,7 @@
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A33" s="4">
-        <v>43922</v>
+        <v>44287</v>
       </c>
       <c r="B33" t="s">
         <v>0</v>
@@ -2765,7 +2765,7 @@
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A34" s="4">
-        <v>43952</v>
+        <v>44317</v>
       </c>
       <c r="B34" t="s">
         <v>0</v>
@@ -2833,7 +2833,7 @@
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A35" s="4">
-        <v>43983</v>
+        <v>44348</v>
       </c>
       <c r="B35" t="s">
         <v>0</v>
@@ -2901,7 +2901,7 @@
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A36" s="4">
-        <v>44013</v>
+        <v>44378</v>
       </c>
       <c r="B36" t="s">
         <v>0</v>
@@ -2969,7 +2969,7 @@
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A37" s="4">
-        <v>44044</v>
+        <v>44409</v>
       </c>
       <c r="B37" t="s">
         <v>0</v>
@@ -3037,7 +3037,7 @@
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A38" s="4">
-        <v>44075</v>
+        <v>44440</v>
       </c>
       <c r="B38" t="s">
         <v>0</v>
@@ -3105,7 +3105,7 @@
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A39" s="4">
-        <v>44105</v>
+        <v>44470</v>
       </c>
       <c r="B39" t="s">
         <v>0</v>
@@ -3173,7 +3173,7 @@
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A40" s="4">
-        <v>44136</v>
+        <v>44501</v>
       </c>
       <c r="B40" t="s">
         <v>0</v>
@@ -3241,7 +3241,7 @@
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A41" s="4">
-        <v>44166</v>
+        <v>44531</v>
       </c>
       <c r="B41" t="s">
         <v>0</v>
@@ -3309,7 +3309,7 @@
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A42" s="4">
-        <v>44197</v>
+        <v>44562</v>
       </c>
       <c r="B42" t="s">
         <v>0</v>
@@ -3377,7 +3377,7 @@
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A43" s="4">
-        <v>44228</v>
+        <v>44593</v>
       </c>
       <c r="B43" t="s">
         <v>0</v>
@@ -3445,7 +3445,7 @@
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A44" s="4">
-        <v>44256</v>
+        <v>44621</v>
       </c>
       <c r="B44" t="s">
         <v>0</v>
@@ -3513,7 +3513,7 @@
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A45" s="4">
-        <v>44287</v>
+        <v>44652</v>
       </c>
       <c r="B45" t="s">
         <v>0</v>
@@ -3581,7 +3581,7 @@
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A46" s="4">
-        <v>44317</v>
+        <v>44682</v>
       </c>
       <c r="B46" t="s">
         <v>0</v>
@@ -3649,7 +3649,7 @@
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A47" s="4">
-        <v>44348</v>
+        <v>44713</v>
       </c>
       <c r="B47" t="s">
         <v>0</v>
@@ -3717,7 +3717,7 @@
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A48" s="4">
-        <v>44378</v>
+        <v>44743</v>
       </c>
       <c r="B48" t="s">
         <v>0</v>
@@ -3785,7 +3785,7 @@
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A49" s="4">
-        <v>44409</v>
+        <v>44774</v>
       </c>
       <c r="B49" t="s">
         <v>0</v>
@@ -3853,7 +3853,7 @@
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A50" s="4">
-        <v>44440</v>
+        <v>44805</v>
       </c>
       <c r="B50" t="s">
         <v>0</v>
@@ -3921,7 +3921,7 @@
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A51" s="4">
-        <v>44470</v>
+        <v>44835</v>
       </c>
       <c r="B51" t="s">
         <v>0</v>
@@ -3989,7 +3989,7 @@
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A52" s="4">
-        <v>44501</v>
+        <v>44866</v>
       </c>
       <c r="B52" t="s">
         <v>0</v>
@@ -4057,7 +4057,7 @@
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A53" s="4">
-        <v>44531</v>
+        <v>44896</v>
       </c>
       <c r="B53" t="s">
         <v>0</v>
@@ -4125,7 +4125,7 @@
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A54" s="4">
-        <v>44562</v>
+        <v>44927</v>
       </c>
       <c r="B54" t="s">
         <v>0</v>
@@ -4193,7 +4193,7 @@
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A55" s="4">
-        <v>44593</v>
+        <v>44958</v>
       </c>
       <c r="B55" t="s">
         <v>0</v>
@@ -4261,7 +4261,7 @@
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A56" s="4">
-        <v>44621</v>
+        <v>44986</v>
       </c>
       <c r="B56" t="s">
         <v>0</v>
@@ -4329,7 +4329,7 @@
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A57" s="4">
-        <v>44652</v>
+        <v>45017</v>
       </c>
       <c r="B57" t="s">
         <v>0</v>
@@ -4397,7 +4397,7 @@
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A58" s="4">
-        <v>44682</v>
+        <v>45047</v>
       </c>
       <c r="B58" t="s">
         <v>0</v>
@@ -4465,7 +4465,7 @@
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A59" s="4">
-        <v>44713</v>
+        <v>45078</v>
       </c>
       <c r="B59" t="s">
         <v>0</v>
@@ -4533,7 +4533,7 @@
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A60" s="4">
-        <v>44743</v>
+        <v>45108</v>
       </c>
       <c r="B60" t="s">
         <v>0</v>
@@ -4601,7 +4601,7 @@
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A61" s="4">
-        <v>44774</v>
+        <v>45139</v>
       </c>
       <c r="B61" t="s">
         <v>0</v>
@@ -4669,7 +4669,7 @@
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A62" s="4">
-        <v>44805</v>
+        <v>45170</v>
       </c>
       <c r="B62" t="s">
         <v>0</v>
@@ -4737,7 +4737,7 @@
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A63" s="4">
-        <v>44835</v>
+        <v>45200</v>
       </c>
       <c r="B63" t="s">
         <v>0</v>
@@ -4805,7 +4805,7 @@
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A64" s="4">
-        <v>44866</v>
+        <v>45231</v>
       </c>
       <c r="B64" t="s">
         <v>0</v>
@@ -4873,7 +4873,7 @@
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A65" s="4">
-        <v>44896</v>
+        <v>45261</v>
       </c>
       <c r="B65" t="s">
         <v>0</v>
@@ -11582,7 +11582,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11616,7 +11616,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
-        <v>42736</v>
+        <v>43101</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -11639,7 +11639,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
-        <v>43101</v>
+        <v>43466</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -11662,7 +11662,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
-        <v>43466</v>
+        <v>43831</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
@@ -11685,7 +11685,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
-        <v>43831</v>
+        <v>44197</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
@@ -11708,7 +11708,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
-        <v>44197</v>
+        <v>44562</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
@@ -11740,7 +11740,7 @@
   <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11792,7 +11792,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
-        <v>42979</v>
+        <v>43344</v>
       </c>
       <c r="B2" s="1">
         <v>56574.26</v>
@@ -11833,7 +11833,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
-        <v>43009</v>
+        <v>43374</v>
       </c>
       <c r="B3" s="1">
         <v>48231.37</v>
@@ -11874,7 +11874,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
-        <v>43040</v>
+        <v>43405</v>
       </c>
       <c r="B4" s="1">
         <v>33048.080000000002</v>
@@ -11915,7 +11915,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
-        <v>43070</v>
+        <v>43435</v>
       </c>
       <c r="B5" s="1">
         <v>24865.08</v>
@@ -11956,7 +11956,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
-        <v>43101</v>
+        <v>43466</v>
       </c>
       <c r="B6" s="1">
         <v>22252.33</v>
@@ -11997,7 +11997,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
-        <v>43132</v>
+        <v>43497</v>
       </c>
       <c r="B7" s="1">
         <v>22672.799999999999</v>
@@ -12038,7 +12038,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
-        <v>43160</v>
+        <v>43525</v>
       </c>
       <c r="B8" s="1">
         <v>32409.31</v>
@@ -12079,7 +12079,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
-        <v>43191</v>
+        <v>43556</v>
       </c>
       <c r="B9" s="1">
         <v>129304.1</v>
@@ -12120,7 +12120,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
-        <v>43221</v>
+        <v>43586</v>
       </c>
       <c r="B10" s="1">
         <v>242113.9</v>
@@ -12161,7 +12161,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
-        <v>43252</v>
+        <v>43617</v>
       </c>
       <c r="B11" s="1">
         <v>360639</v>
@@ -12202,7 +12202,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
-        <v>43282</v>
+        <v>43647</v>
       </c>
       <c r="B12" s="1">
         <v>117138</v>
@@ -12243,7 +12243,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
-        <v>43313</v>
+        <v>43678</v>
       </c>
       <c r="B13" s="1">
         <v>63574.64</v>
@@ -12284,7 +12284,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
-        <v>43344</v>
+        <v>43709</v>
       </c>
       <c r="B14" s="1">
         <v>48335.02</v>
@@ -12325,7 +12325,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
-        <v>43374</v>
+        <v>43739</v>
       </c>
       <c r="B15" s="1">
         <v>54591.56</v>
@@ -12366,7 +12366,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
-        <v>43405</v>
+        <v>43770</v>
       </c>
       <c r="B16" s="1">
         <v>36683.29</v>
@@ -12407,7 +12407,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
-        <v>43435</v>
+        <v>43800</v>
       </c>
       <c r="B17" s="1">
         <v>33647.79</v>
@@ -12448,7 +12448,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
-        <v>43466</v>
+        <v>43831</v>
       </c>
       <c r="B18" s="1">
         <v>29553.7</v>
@@ -12489,7 +12489,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
-        <v>43497</v>
+        <v>43862</v>
       </c>
       <c r="B19" s="1">
         <v>28053.19</v>
@@ -12530,7 +12530,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
-        <v>43525</v>
+        <v>43891</v>
       </c>
       <c r="B20" s="1">
         <v>53513.79</v>
@@ -12571,7 +12571,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
-        <v>43556</v>
+        <v>43922</v>
       </c>
       <c r="B21" s="1">
         <v>73052.039999999994</v>
@@ -12612,7 +12612,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
-        <v>43586</v>
+        <v>43952</v>
       </c>
       <c r="B22" s="1">
         <v>136242.70000000001</v>
@@ -12653,7 +12653,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
-        <v>43617</v>
+        <v>43983</v>
       </c>
       <c r="B23" s="1">
         <v>367781.3</v>
@@ -12694,7 +12694,7 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
-        <v>43647</v>
+        <v>44013</v>
       </c>
       <c r="B24" s="1">
         <v>131207.9</v>
@@ -12735,7 +12735,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
-        <v>43678</v>
+        <v>44044</v>
       </c>
       <c r="B25" s="1">
         <v>59293.96</v>
@@ -12776,7 +12776,7 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
-        <v>43709</v>
+        <v>44075</v>
       </c>
       <c r="B26" s="1">
         <v>38688.67</v>
@@ -12817,7 +12817,7 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
-        <v>43739</v>
+        <v>44105</v>
       </c>
       <c r="B27" s="1">
         <v>33341.449999999997</v>
@@ -12958,7 +12958,7 @@
   <dimension ref="A1:Z570"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13002,7 +13002,7 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
-        <v>42979</v>
+        <v>43344</v>
       </c>
       <c r="B2" s="1">
         <v>-5894.69</v>
@@ -13045,7 +13045,7 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
-        <v>43009</v>
+        <v>43374</v>
       </c>
       <c r="B3" s="1">
         <v>9566.43</v>
@@ -13092,7 +13092,7 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
-        <v>43040</v>
+        <v>43405</v>
       </c>
       <c r="B4" s="1">
         <v>-5666.19</v>
@@ -13135,7 +13135,7 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
-        <v>43070</v>
+        <v>43435</v>
       </c>
       <c r="B5" s="1">
         <v>-1670.61</v>
@@ -13178,7 +13178,7 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
-        <v>43101</v>
+        <v>43466</v>
       </c>
       <c r="B6" s="1">
         <v>-21864.400000000001</v>
@@ -13221,7 +13221,7 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
-        <v>43132</v>
+        <v>43497</v>
       </c>
       <c r="B7" s="1">
         <v>-7545.24</v>
@@ -13264,7 +13264,7 @@
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
-        <v>43160</v>
+        <v>43525</v>
       </c>
       <c r="B8" s="1">
         <v>-21530.83</v>
@@ -13307,7 +13307,7 @@
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
-        <v>43191</v>
+        <v>43556</v>
       </c>
       <c r="B9" s="1">
         <v>-18509.3</v>
@@ -13350,7 +13350,7 @@
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
-        <v>43221</v>
+        <v>43586</v>
       </c>
       <c r="B10" s="1">
         <v>-10435.120000000001</v>
@@ -13393,7 +13393,7 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
-        <v>43252</v>
+        <v>43617</v>
       </c>
       <c r="B11" s="1">
         <v>-18403.490000000002</v>
@@ -13436,7 +13436,7 @@
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
-        <v>43282</v>
+        <v>43647</v>
       </c>
       <c r="B12" s="1">
         <v>-13568.73</v>
@@ -13479,7 +13479,7 @@
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
-        <v>43313</v>
+        <v>43678</v>
       </c>
       <c r="B13" s="1">
         <v>-16631.419999999998</v>
@@ -13522,7 +13522,7 @@
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
-        <v>43344</v>
+        <v>43709</v>
       </c>
       <c r="B14" s="1">
         <v>-16038.95</v>
@@ -13565,7 +13565,7 @@
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
-        <v>43374</v>
+        <v>43739</v>
       </c>
       <c r="B15" s="1">
         <v>-7345.29</v>
@@ -13612,7 +13612,7 @@
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
-        <v>43405</v>
+        <v>43770</v>
       </c>
       <c r="B16" s="1">
         <v>-13474.74</v>
@@ -13655,7 +13655,7 @@
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
-        <v>43435</v>
+        <v>43800</v>
       </c>
       <c r="B17" s="1">
         <v>-12944.09</v>
@@ -13698,7 +13698,7 @@
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
-        <v>43466</v>
+        <v>43831</v>
       </c>
       <c r="B18" s="1">
         <v>-31790.57</v>
@@ -13740,7 +13740,7 @@
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
-        <v>43497</v>
+        <v>43862</v>
       </c>
       <c r="B19" s="1">
         <v>-20499.46</v>
@@ -13783,7 +13783,7 @@
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
-        <v>43525</v>
+        <v>43891</v>
       </c>
       <c r="B20" s="1">
         <v>-15448.75</v>
@@ -13826,7 +13826,7 @@
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
-        <v>43556</v>
+        <v>43922</v>
       </c>
       <c r="B21" s="1">
         <v>-17709.400000000001</v>
@@ -13869,7 +13869,7 @@
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
-        <v>43586</v>
+        <v>43952</v>
       </c>
       <c r="B22" s="1">
         <v>-5794.55</v>
@@ -13913,7 +13913,7 @@
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
-        <v>43617</v>
+        <v>43983</v>
       </c>
       <c r="B23" s="1">
         <v>-15855.95</v>
@@ -13957,7 +13957,7 @@
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
-        <v>43647</v>
+        <v>44013</v>
       </c>
       <c r="B24" s="1">
         <v>-23911.19</v>
@@ -14001,7 +14001,7 @@
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
-        <v>43678</v>
+        <v>44044</v>
       </c>
       <c r="B25" s="1">
         <v>-11929.89</v>
@@ -14045,7 +14045,7 @@
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
-        <v>43709</v>
+        <v>44075</v>
       </c>
       <c r="B26" s="1">
         <v>-17913.939999999999</v>
@@ -14089,7 +14089,7 @@
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
-        <v>43739</v>
+        <v>44105</v>
       </c>
       <c r="B27" s="1">
         <v>-6785.6</v>
@@ -14137,7 +14137,7 @@
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
-        <v>43770</v>
+        <v>44136</v>
       </c>
       <c r="B28" s="1">
         <v>-29191.95</v>
@@ -14181,7 +14181,7 @@
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A29" s="4">
-        <v>43800</v>
+        <v>44166</v>
       </c>
       <c r="B29" s="1">
         <v>-17534.43</v>
@@ -14225,7 +14225,7 @@
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A30" s="4">
-        <v>43831</v>
+        <v>44197</v>
       </c>
       <c r="B30" s="1">
         <v>-23340</v>
@@ -14269,7 +14269,7 @@
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A31" s="4">
-        <v>43862</v>
+        <v>44228</v>
       </c>
       <c r="B31" s="1">
         <v>-13790</v>
@@ -14313,7 +14313,7 @@
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A32" s="4">
-        <v>43891</v>
+        <v>44256</v>
       </c>
       <c r="B32" s="1">
         <v>-15540</v>
@@ -14357,7 +14357,7 @@
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A33" s="4">
-        <v>43922</v>
+        <v>44287</v>
       </c>
       <c r="B33" s="1">
         <v>-19260</v>
@@ -14401,7 +14401,7 @@
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A34" s="4">
-        <v>43952</v>
+        <v>44317</v>
       </c>
       <c r="B34" s="1">
         <v>-13340</v>
@@ -14445,7 +14445,7 @@
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A35" s="4">
-        <v>43983</v>
+        <v>44348</v>
       </c>
       <c r="B35" s="1">
         <v>-16340</v>
@@ -14489,7 +14489,7 @@
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A36" s="4">
-        <v>44013</v>
+        <v>44378</v>
       </c>
       <c r="B36" s="1">
         <v>-13320</v>
@@ -14533,7 +14533,7 @@
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A37" s="4">
-        <v>44044</v>
+        <v>44409</v>
       </c>
       <c r="B37" s="1">
         <v>-11130</v>
@@ -14577,7 +14577,7 @@
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A38" s="4">
-        <v>44075</v>
+        <v>44440</v>
       </c>
       <c r="B38" s="1">
         <v>-8790</v>
@@ -14621,7 +14621,7 @@
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A39" s="4">
-        <v>44105</v>
+        <v>44470</v>
       </c>
       <c r="B39" s="1">
         <v>-1280</v>
@@ -14669,7 +14669,7 @@
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A40" s="4">
-        <v>44136</v>
+        <v>44501</v>
       </c>
       <c r="B40" s="1">
         <v>-7570</v>
@@ -14713,7 +14713,7 @@
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A41" s="4">
-        <v>44166</v>
+        <v>44531</v>
       </c>
       <c r="B41" s="1">
         <v>-11820</v>
@@ -14757,7 +14757,7 @@
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A42" s="4">
-        <v>44197</v>
+        <v>44562</v>
       </c>
       <c r="B42" s="1">
         <v>-14160</v>
@@ -14801,7 +14801,7 @@
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A43" s="4">
-        <v>44228</v>
+        <v>44593</v>
       </c>
       <c r="B43" s="1">
         <v>-13790</v>
@@ -14845,7 +14845,7 @@
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A44" s="4">
-        <v>44256</v>
+        <v>44621</v>
       </c>
       <c r="B44" s="1">
         <v>-15540</v>
@@ -14889,7 +14889,7 @@
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A45" s="4">
-        <v>44287</v>
+        <v>44652</v>
       </c>
       <c r="B45" s="1">
         <v>-19260</v>
@@ -14933,7 +14933,7 @@
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A46" s="4">
-        <v>44317</v>
+        <v>44682</v>
       </c>
       <c r="B46" s="1">
         <v>-13340</v>
@@ -14977,7 +14977,7 @@
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A47" s="4">
-        <v>44348</v>
+        <v>44713</v>
       </c>
       <c r="B47" s="1">
         <v>-16340</v>
@@ -15021,7 +15021,7 @@
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A48" s="4">
-        <v>44378</v>
+        <v>44743</v>
       </c>
       <c r="B48" s="1">
         <v>-13320</v>
@@ -15065,7 +15065,7 @@
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A49" s="4">
-        <v>44409</v>
+        <v>44774</v>
       </c>
       <c r="B49" s="1">
         <v>-11130</v>
@@ -15109,7 +15109,7 @@
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A50" s="4">
-        <v>44440</v>
+        <v>44805</v>
       </c>
       <c r="B50" s="1">
         <v>-8790</v>
@@ -15153,7 +15153,7 @@
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A51" s="4">
-        <v>44470</v>
+        <v>44835</v>
       </c>
       <c r="B51" s="1">
         <v>-1280</v>
@@ -15200,7 +15200,7 @@
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A52" s="4">
-        <v>44501</v>
+        <v>44866</v>
       </c>
       <c r="B52" s="1">
         <v>-7570</v>
@@ -15243,7 +15243,7 @@
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A53" s="4">
-        <v>44531</v>
+        <v>44896</v>
       </c>
       <c r="B53" s="1">
         <v>-11820</v>
@@ -15286,7 +15286,7 @@
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A54" s="4">
-        <v>44562</v>
+        <v>44927</v>
       </c>
       <c r="B54" s="1">
         <v>-14160</v>
@@ -15329,7 +15329,7 @@
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A55" s="4">
-        <v>44593</v>
+        <v>44958</v>
       </c>
       <c r="B55" s="1">
         <v>-13790</v>
@@ -15373,7 +15373,7 @@
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A56" s="4">
-        <v>44621</v>
+        <v>44986</v>
       </c>
       <c r="B56" s="1">
         <v>-15540</v>
@@ -15417,7 +15417,7 @@
     </row>
     <row r="57" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A57" s="4">
-        <v>44652</v>
+        <v>45017</v>
       </c>
       <c r="B57" s="1">
         <v>-19260</v>
@@ -15461,7 +15461,7 @@
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A58" s="4">
-        <v>44682</v>
+        <v>45047</v>
       </c>
       <c r="B58" s="1">
         <v>-13340</v>
@@ -15505,7 +15505,7 @@
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A59" s="4">
-        <v>44713</v>
+        <v>45078</v>
       </c>
       <c r="B59" s="1">
         <v>-16340</v>
@@ -15549,7 +15549,7 @@
     </row>
     <row r="60" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A60" s="4">
-        <v>44743</v>
+        <v>45108</v>
       </c>
       <c r="B60" s="1">
         <v>10577.18</v>
@@ -15593,7 +15593,7 @@
     </row>
     <row r="61" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A61" s="4">
-        <v>44774</v>
+        <v>45139</v>
       </c>
       <c r="B61" s="1">
         <v>47366.78</v>
@@ -15637,7 +15637,7 @@
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A62" s="4">
-        <v>44805</v>
+        <v>45170</v>
       </c>
       <c r="B62" s="1">
         <v>21405.07</v>

--- a/Input Data/DevTesting/DevTesting_IC.avg.xlsx
+++ b/Input Data/DevTesting/DevTesting_IC.avg.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12440"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12440" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Reservoirs" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="49">
   <si>
     <t>NaN</t>
   </si>
@@ -504,11 +504,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z412"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C18" sqref="B18:C18"/>
+      <selection pane="bottomRight" activeCell="K14" sqref="K14:K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11581,8 +11581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11700,34 +11700,14 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>3602.46</v>
+        <v>3601</v>
       </c>
       <c r="G5">
-        <v>1082.33</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="4">
-        <v>44562</v>
-      </c>
-      <c r="B6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>3602.46</v>
-      </c>
-      <c r="G6">
-        <v>1082.33</v>
-      </c>
+      <c r="A6" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Input Data/DevTesting/DevTesting_IC.avg.xlsx
+++ b/Input Data/DevTesting/DevTesting_IC.avg.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12440" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12440"/>
   </bookViews>
   <sheets>
     <sheet name="Reservoirs" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="50">
   <si>
     <t>NaN</t>
   </si>
@@ -175,6 +175,9 @@
   <si>
     <t>Annual Volume</t>
   </si>
+  <si>
+    <t>HavasuOutflow.BHOPSParkerOutflow</t>
+  </si>
 </sst>
 </file>
 
@@ -212,7 +215,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -222,6 +225,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -502,24 +506,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z412"/>
+  <dimension ref="A1:AA412"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K14" sqref="K14:K17"/>
+      <selection pane="bottomRight" activeCell="U42" sqref="U42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="19" width="13.1796875" customWidth="1"/>
-    <col min="21" max="21" width="10.26953125" customWidth="1"/>
-    <col min="22" max="22" width="11.1796875" customWidth="1"/>
+    <col min="2" max="20" width="13.1796875" customWidth="1"/>
+    <col min="22" max="22" width="10.26953125" customWidth="1"/>
+    <col min="23" max="23" width="11.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" ht="58" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>43</v>
       </c>
@@ -578,16 +582,19 @@
         <v>18</v>
       </c>
       <c r="T1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="U1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
         <v>43344</v>
       </c>
@@ -648,14 +655,17 @@
       <c r="T2" t="s">
         <v>0</v>
       </c>
-      <c r="U2">
+      <c r="U2" t="s">
+        <v>0</v>
+      </c>
+      <c r="V2">
         <v>1623615</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>560869</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>43374</v>
       </c>
@@ -716,14 +726,17 @@
       <c r="T3" t="s">
         <v>0</v>
       </c>
-      <c r="U3">
+      <c r="U3" t="s">
+        <v>0</v>
+      </c>
+      <c r="V3">
         <v>1560495</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>578694</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>43405</v>
       </c>
@@ -784,14 +797,17 @@
       <c r="T4" t="s">
         <v>0</v>
       </c>
-      <c r="U4">
+      <c r="U4" t="s">
+        <v>0</v>
+      </c>
+      <c r="V4">
         <v>1536582</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>587433</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>43435</v>
       </c>
@@ -852,14 +868,17 @@
       <c r="T5" t="s">
         <v>0</v>
       </c>
-      <c r="U5">
+      <c r="U5" t="s">
+        <v>0</v>
+      </c>
+      <c r="V5">
         <v>1605818</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>531711</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>43466</v>
       </c>
@@ -920,14 +939,17 @@
       <c r="T6" t="s">
         <v>0</v>
       </c>
-      <c r="U6">
+      <c r="U6" t="s">
+        <v>0</v>
+      </c>
+      <c r="V6">
         <v>1642854</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>547383</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>43497</v>
       </c>
@@ -988,14 +1010,17 @@
       <c r="T7" t="s">
         <v>0</v>
       </c>
-      <c r="U7">
+      <c r="U7" t="s">
+        <v>0</v>
+      </c>
+      <c r="V7">
         <v>1670397</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>582676</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>43525</v>
       </c>
@@ -1056,14 +1081,17 @@
       <c r="T8" t="s">
         <v>0</v>
       </c>
-      <c r="U8">
+      <c r="U8" t="s">
+        <v>0</v>
+      </c>
+      <c r="V8">
         <v>1660923</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>562545</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <v>43556</v>
       </c>
@@ -1124,14 +1152,17 @@
       <c r="T9" t="s">
         <v>0</v>
       </c>
-      <c r="U9">
+      <c r="U9" t="s">
+        <v>0</v>
+      </c>
+      <c r="V9">
         <v>1702265</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>582485</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>43586</v>
       </c>
@@ -1192,14 +1223,17 @@
       <c r="T10" t="s">
         <v>0</v>
       </c>
-      <c r="U10">
+      <c r="U10" t="s">
+        <v>0</v>
+      </c>
+      <c r="V10">
         <v>1726416</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>589526</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <v>43617</v>
       </c>
@@ -1260,14 +1294,17 @@
       <c r="T11" t="s">
         <v>0</v>
       </c>
-      <c r="U11">
+      <c r="U11" t="s">
+        <v>0</v>
+      </c>
+      <c r="V11">
         <v>1694068</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>578505</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>43647</v>
       </c>
@@ -1328,14 +1365,17 @@
       <c r="T12" t="s">
         <v>0</v>
       </c>
-      <c r="U12">
+      <c r="U12" t="s">
+        <v>0</v>
+      </c>
+      <c r="V12">
         <v>1701443</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>585530</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
         <v>43678</v>
       </c>
@@ -1396,14 +1436,17 @@
       <c r="T13" t="s">
         <v>0</v>
       </c>
-      <c r="U13">
+      <c r="U13" t="s">
+        <v>0</v>
+      </c>
+      <c r="V13">
         <v>1710479</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>582295</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
         <v>43709</v>
       </c>
@@ -1464,14 +1507,17 @@
       <c r="T14" t="s">
         <v>0</v>
       </c>
-      <c r="U14">
+      <c r="U14" t="s">
+        <v>0</v>
+      </c>
+      <c r="V14">
         <v>1645274</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>583627</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
         <v>43739</v>
       </c>
@@ -1529,17 +1575,20 @@
       <c r="S15" s="1">
         <v>597939.31000000006</v>
       </c>
-      <c r="T15" t="s">
-        <v>0</v>
-      </c>
-      <c r="U15">
+      <c r="T15" s="7">
+        <v>483630.99999948498</v>
+      </c>
+      <c r="U15" t="s">
+        <v>0</v>
+      </c>
+      <c r="V15">
         <v>1470351</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>550689</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
         <v>43770</v>
       </c>
@@ -1597,17 +1646,20 @@
       <c r="S16" s="1">
         <v>776770.24</v>
       </c>
-      <c r="T16" t="s">
-        <v>0</v>
-      </c>
-      <c r="U16">
+      <c r="T16" s="7">
+        <v>357064.00000086601</v>
+      </c>
+      <c r="U16" t="s">
+        <v>0</v>
+      </c>
+      <c r="V16">
         <v>1520116</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>576053</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
         <v>43800</v>
       </c>
@@ -1665,17 +1717,20 @@
       <c r="S17" s="1">
         <v>864374.52</v>
       </c>
-      <c r="T17" t="s">
-        <v>0</v>
-      </c>
-      <c r="U17">
+      <c r="T17" s="7">
+        <v>308724.99999971403</v>
+      </c>
+      <c r="U17" t="s">
+        <v>0</v>
+      </c>
+      <c r="V17">
         <v>1557598</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>549587</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
         <v>43831</v>
       </c>
@@ -1733,17 +1788,20 @@
       <c r="S18" s="1">
         <v>862083.01</v>
       </c>
-      <c r="T18" t="s">
-        <v>0</v>
-      </c>
-      <c r="U18">
+      <c r="T18" s="7">
+        <v>264926.00000214297</v>
+      </c>
+      <c r="U18" t="s">
+        <v>0</v>
+      </c>
+      <c r="V18">
         <v>1698159</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>584579</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
         <v>43862</v>
       </c>
@@ -1801,17 +1859,20 @@
       <c r="S19" s="1">
         <v>589192.88</v>
       </c>
-      <c r="T19" t="s">
-        <v>0</v>
-      </c>
-      <c r="U19">
+      <c r="T19" s="7">
+        <v>429686.99999909499</v>
+      </c>
+      <c r="U19" t="s">
+        <v>0</v>
+      </c>
+      <c r="V19">
         <v>1656059</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>568715</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
         <v>43891</v>
       </c>
@@ -1869,17 +1930,20 @@
       <c r="S20" s="1">
         <v>649250.72</v>
       </c>
-      <c r="T20" t="s">
-        <v>0</v>
-      </c>
-      <c r="U20">
+      <c r="T20" s="7">
+        <v>704807.00000050804</v>
+      </c>
+      <c r="U20" t="s">
+        <v>0</v>
+      </c>
+      <c r="V20">
         <v>1692704</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>578317</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
         <v>43922</v>
       </c>
@@ -1937,17 +2001,20 @@
       <c r="S21" s="1">
         <v>600308.93000000005</v>
       </c>
-      <c r="T21" t="s">
-        <v>0</v>
-      </c>
-      <c r="U21">
+      <c r="T21" s="7">
+        <v>727063.99999834399</v>
+      </c>
+      <c r="U21" t="s">
+        <v>0</v>
+      </c>
+      <c r="V21">
         <v>1722841</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>582105</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
         <v>43952</v>
       </c>
@@ -2005,17 +2072,20 @@
       <c r="S22" s="1">
         <v>698702.75</v>
       </c>
-      <c r="T22" t="s">
-        <v>0</v>
-      </c>
-      <c r="U22">
+      <c r="T22" s="7">
+        <v>692076.99994727795</v>
+      </c>
+      <c r="U22" t="s">
+        <v>0</v>
+      </c>
+      <c r="V22">
         <v>1706920</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>589907</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
         <v>43983</v>
       </c>
@@ -2073,17 +2143,20 @@
       <c r="S23" s="1">
         <v>800000.06</v>
       </c>
-      <c r="T23" t="s">
-        <v>0</v>
-      </c>
-      <c r="U23">
+      <c r="T23" s="7">
+        <v>714901.00000024599</v>
+      </c>
+      <c r="U23" t="s">
+        <v>0</v>
+      </c>
+      <c r="V23">
         <v>1720917</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>597394</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
         <v>44013</v>
       </c>
@@ -2141,17 +2214,20 @@
       <c r="S24" s="1">
         <v>1048220.62</v>
       </c>
-      <c r="T24" t="s">
-        <v>0</v>
-      </c>
-      <c r="U24">
+      <c r="T24" s="7">
+        <v>674573.99999998498</v>
+      </c>
+      <c r="U24" t="s">
+        <v>0</v>
+      </c>
+      <c r="V24">
         <v>1686975</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>580203</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
         <v>44044</v>
       </c>
@@ -2209,17 +2285,20 @@
       <c r="S25" s="1">
         <v>799328.22</v>
       </c>
-      <c r="T25" t="s">
-        <v>0</v>
-      </c>
-      <c r="U25">
+      <c r="T25" s="7">
+        <v>595143.00000424299</v>
+      </c>
+      <c r="U25" t="s">
+        <v>0</v>
+      </c>
+      <c r="V25">
         <v>1674741</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>586101</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
         <v>44075</v>
       </c>
@@ -2277,17 +2356,20 @@
       <c r="S26" s="1">
         <v>714101.84</v>
       </c>
-      <c r="T26" t="s">
-        <v>0</v>
-      </c>
-      <c r="U26">
+      <c r="T26" s="7">
+        <v>505150.00003029301</v>
+      </c>
+      <c r="U26" t="s">
+        <v>0</v>
+      </c>
+      <c r="V26">
         <v>1605551</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>581153</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
         <v>44105</v>
       </c>
@@ -2348,14 +2430,17 @@
       <c r="T27" t="s">
         <v>0</v>
       </c>
-      <c r="U27">
+      <c r="U27" t="s">
+        <v>0</v>
+      </c>
+      <c r="V27">
         <v>1506574</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>578128</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
         <v>44136</v>
       </c>
@@ -2416,14 +2501,17 @@
       <c r="T28" t="s">
         <v>0</v>
       </c>
-      <c r="U28">
+      <c r="U28" t="s">
+        <v>0</v>
+      </c>
+      <c r="V28">
         <v>1514640</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>572091</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A29" s="4">
         <v>44166</v>
       </c>
@@ -2484,14 +2572,17 @@
       <c r="T29" t="s">
         <v>0</v>
       </c>
-      <c r="U29">
+      <c r="U29" t="s">
+        <v>0</v>
+      </c>
+      <c r="V29">
         <v>1584553</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>560127</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A30" s="4">
         <v>44197</v>
       </c>
@@ -2552,14 +2643,17 @@
       <c r="T30" t="s">
         <v>0</v>
       </c>
-      <c r="U30" s="6">
+      <c r="U30" t="s">
+        <v>0</v>
+      </c>
+      <c r="V30" s="6">
         <v>1651366</v>
       </c>
-      <c r="V30" s="6">
+      <c r="W30" s="6">
         <v>553758.4</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A31" s="4">
         <v>44228</v>
       </c>
@@ -2620,14 +2714,17 @@
       <c r="T31" t="s">
         <v>0</v>
       </c>
-      <c r="U31" s="6">
+      <c r="U31" t="s">
+        <v>0</v>
+      </c>
+      <c r="V31" s="6">
         <v>1645183</v>
       </c>
-      <c r="V31" s="6">
+      <c r="W31" s="6">
         <v>551973.6</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A32" s="4">
         <v>44256</v>
       </c>
@@ -2688,14 +2785,17 @@
       <c r="T32" t="s">
         <v>0</v>
       </c>
-      <c r="U32" s="6">
+      <c r="U32" t="s">
+        <v>0</v>
+      </c>
+      <c r="V32" s="6">
         <v>1703265</v>
       </c>
-      <c r="V32" s="6">
+      <c r="W32" s="6">
         <v>568584.4</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A33" s="4">
         <v>44287</v>
       </c>
@@ -2756,14 +2856,17 @@
       <c r="T33" t="s">
         <v>0</v>
       </c>
-      <c r="U33" s="6">
+      <c r="U33" t="s">
+        <v>0</v>
+      </c>
+      <c r="V33" s="6">
         <v>1745673.1</v>
       </c>
-      <c r="V33" s="6">
+      <c r="W33" s="6">
         <v>597169</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A34" s="4">
         <v>44317</v>
       </c>
@@ -2824,14 +2927,17 @@
       <c r="T34" t="s">
         <v>0</v>
       </c>
-      <c r="U34" s="6">
+      <c r="U34" t="s">
+        <v>0</v>
+      </c>
+      <c r="V34" s="6">
         <v>1700542.5</v>
       </c>
-      <c r="V34" s="6">
+      <c r="W34" s="6">
         <v>581455</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A35" s="4">
         <v>44348</v>
       </c>
@@ -2892,14 +2998,17 @@
       <c r="T35" t="s">
         <v>0</v>
       </c>
-      <c r="U35" s="6">
+      <c r="U35" t="s">
+        <v>0</v>
+      </c>
+      <c r="V35" s="6">
         <v>1740991.8</v>
       </c>
-      <c r="V35" s="6">
+      <c r="W35" s="6">
         <v>595733.4</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A36" s="4">
         <v>44378</v>
       </c>
@@ -2960,14 +3069,17 @@
       <c r="T36" t="s">
         <v>0</v>
       </c>
-      <c r="U36" s="6">
+      <c r="U36" t="s">
+        <v>0</v>
+      </c>
+      <c r="V36" s="6">
         <v>1719242.5</v>
       </c>
-      <c r="V36" s="6">
+      <c r="W36" s="6">
         <v>600060</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A37" s="4">
         <v>44409</v>
       </c>
@@ -3028,14 +3140,17 @@
       <c r="T37" t="s">
         <v>0</v>
       </c>
-      <c r="U37" s="6">
+      <c r="U37" t="s">
+        <v>0</v>
+      </c>
+      <c r="V37" s="6">
         <v>1671481.9</v>
       </c>
-      <c r="V37" s="6">
+      <c r="W37" s="6">
         <v>589777.6</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A38" s="4">
         <v>44440</v>
       </c>
@@ -3096,14 +3211,17 @@
       <c r="T38" t="s">
         <v>0</v>
       </c>
-      <c r="U38" s="6">
+      <c r="U38" t="s">
+        <v>0</v>
+      </c>
+      <c r="V38" s="6">
         <v>1626511.5</v>
       </c>
-      <c r="V38" s="6">
+      <c r="W38" s="6">
         <v>579357.4</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A39" s="4">
         <v>44470</v>
       </c>
@@ -3164,14 +3282,17 @@
       <c r="T39" t="s">
         <v>0</v>
       </c>
-      <c r="U39" s="6">
+      <c r="U39" t="s">
+        <v>0</v>
+      </c>
+      <c r="V39" s="6">
         <v>1482076.3</v>
       </c>
-      <c r="V39" s="6">
+      <c r="W39" s="6">
         <v>559315.19999999995</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A40" s="4">
         <v>44501</v>
       </c>
@@ -3232,14 +3353,17 @@
       <c r="T40" t="s">
         <v>0</v>
       </c>
-      <c r="U40" s="6">
+      <c r="U40" t="s">
+        <v>0</v>
+      </c>
+      <c r="V40" s="6">
         <v>1619947.9</v>
       </c>
-      <c r="V40" s="6">
+      <c r="W40" s="6">
         <v>548808.80000000005</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A41" s="4">
         <v>44531</v>
       </c>
@@ -3300,14 +3424,17 @@
       <c r="T41" t="s">
         <v>0</v>
       </c>
-      <c r="U41">
+      <c r="U41" t="s">
+        <v>0</v>
+      </c>
+      <c r="V41">
         <v>1508394</v>
       </c>
-      <c r="V41">
+      <c r="W41">
         <v>581343</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A42" s="4">
         <v>44562</v>
       </c>
@@ -3368,14 +3495,17 @@
       <c r="T42" t="s">
         <v>0</v>
       </c>
-      <c r="U42">
+      <c r="U42" t="s">
+        <v>0</v>
+      </c>
+      <c r="V42">
         <v>1715145</v>
       </c>
-      <c r="V42">
+      <c r="W42">
         <v>552527</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A43" s="4">
         <v>44593</v>
       </c>
@@ -3436,14 +3566,17 @@
       <c r="T43" t="s">
         <v>0</v>
       </c>
-      <c r="U43">
+      <c r="U43" t="s">
+        <v>0</v>
+      </c>
+      <c r="V43">
         <v>1731382</v>
       </c>
-      <c r="V43">
+      <c r="W43">
         <v>552527</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A44" s="4">
         <v>44621</v>
       </c>
@@ -3504,14 +3637,17 @@
       <c r="T44" t="s">
         <v>0</v>
       </c>
-      <c r="U44">
+      <c r="U44" t="s">
+        <v>0</v>
+      </c>
+      <c r="V44">
         <v>1732486</v>
       </c>
-      <c r="V44">
+      <c r="W44">
         <v>573412</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A45" s="4">
         <v>44652</v>
       </c>
@@ -3572,14 +3708,17 @@
       <c r="T45" t="s">
         <v>0</v>
       </c>
-      <c r="U45">
+      <c r="U45" t="s">
+        <v>0</v>
+      </c>
+      <c r="V45">
         <v>1762682</v>
       </c>
-      <c r="V45">
+      <c r="W45">
         <v>575487</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A46" s="4">
         <v>44682</v>
       </c>
@@ -3640,14 +3779,17 @@
       <c r="T46" t="s">
         <v>0</v>
       </c>
-      <c r="U46">
+      <c r="U46" t="s">
+        <v>0</v>
+      </c>
+      <c r="V46">
         <v>1688885</v>
       </c>
-      <c r="V46">
+      <c r="W46">
         <v>600474</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A47" s="4">
         <v>44713</v>
       </c>
@@ -3708,14 +3850,17 @@
       <c r="T47" t="s">
         <v>0</v>
       </c>
-      <c r="U47">
+      <c r="U47" t="s">
+        <v>0</v>
+      </c>
+      <c r="V47">
         <v>1724216</v>
       </c>
-      <c r="V47">
+      <c r="W47">
         <v>576807</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A48" s="4">
         <v>44743</v>
       </c>
@@ -3776,14 +3921,17 @@
       <c r="T48" t="s">
         <v>0</v>
       </c>
-      <c r="U48">
+      <c r="U48" t="s">
+        <v>0</v>
+      </c>
+      <c r="V48">
         <v>1742152</v>
       </c>
-      <c r="V48">
+      <c r="W48">
         <v>573412</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A49" s="4">
         <v>44774</v>
       </c>
@@ -3844,14 +3992,17 @@
       <c r="T49" t="s">
         <v>0</v>
       </c>
-      <c r="U49">
+      <c r="U49" t="s">
+        <v>0</v>
+      </c>
+      <c r="V49">
         <v>1709110</v>
       </c>
-      <c r="V49">
+      <c r="W49">
         <v>561610</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A50" s="4">
         <v>44805</v>
       </c>
@@ -3912,14 +4063,17 @@
       <c r="T50" t="s">
         <v>0</v>
       </c>
-      <c r="U50">
+      <c r="U50" t="s">
+        <v>0</v>
+      </c>
+      <c r="V50">
         <v>1561812</v>
       </c>
-      <c r="V50">
+      <c r="W50">
         <v>540791</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A51" s="4">
         <v>44835</v>
       </c>
@@ -3980,14 +4134,17 @@
       <c r="T51" t="s">
         <v>0</v>
       </c>
-      <c r="U51">
+      <c r="U51" t="s">
+        <v>0</v>
+      </c>
+      <c r="V51">
         <v>1460318</v>
       </c>
-      <c r="V51">
+      <c r="W51">
         <v>554752</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A52" s="4">
         <v>44866</v>
       </c>
@@ -4048,14 +4205,17 @@
       <c r="T52" t="s">
         <v>0</v>
       </c>
-      <c r="U52">
+      <c r="U52" t="s">
+        <v>0</v>
+      </c>
+      <c r="V52">
         <v>1472923</v>
       </c>
-      <c r="V52">
+      <c r="W52">
         <v>566285</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A53" s="4">
         <v>44896</v>
       </c>
@@ -4116,14 +4276,17 @@
       <c r="T53" t="s">
         <v>0</v>
       </c>
-      <c r="U53">
+      <c r="U53" t="s">
+        <v>0</v>
+      </c>
+      <c r="V53">
         <v>1409811</v>
       </c>
-      <c r="V53">
+      <c r="W53">
         <v>586291</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A54" s="4">
         <v>44927</v>
       </c>
@@ -4184,14 +4347,17 @@
       <c r="T54" t="s">
         <v>0</v>
       </c>
-      <c r="U54">
+      <c r="U54" t="s">
+        <v>0</v>
+      </c>
+      <c r="V54">
         <v>1646622</v>
       </c>
-      <c r="V54">
+      <c r="W54">
         <v>572657</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A55" s="4">
         <v>44958</v>
       </c>
@@ -4252,14 +4418,17 @@
       <c r="T55" t="s">
         <v>0</v>
       </c>
-      <c r="U55">
+      <c r="U55" t="s">
+        <v>0</v>
+      </c>
+      <c r="V55">
         <v>1580841</v>
       </c>
-      <c r="V55">
+      <c r="W55">
         <v>569650</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A56" s="4">
         <v>44986</v>
       </c>
@@ -4320,14 +4489,17 @@
       <c r="T56" t="s">
         <v>0</v>
       </c>
-      <c r="U56">
+      <c r="U56" t="s">
+        <v>0</v>
+      </c>
+      <c r="V56">
         <v>1665254</v>
       </c>
-      <c r="V56">
+      <c r="W56">
         <v>559386</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A57" s="4">
         <v>45017</v>
       </c>
@@ -4388,14 +4560,17 @@
       <c r="T57" t="s">
         <v>0</v>
       </c>
-      <c r="U57">
+      <c r="U57" t="s">
+        <v>0</v>
+      </c>
+      <c r="V57">
         <v>1600758</v>
       </c>
-      <c r="V57">
+      <c r="W57">
         <v>589907</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A58" s="4">
         <v>45047</v>
       </c>
@@ -4456,14 +4631,17 @@
       <c r="T58" t="s">
         <v>0</v>
       </c>
-      <c r="U58">
+      <c r="U58" t="s">
+        <v>0</v>
+      </c>
+      <c r="V58">
         <v>1676371</v>
       </c>
-      <c r="V58">
+      <c r="W58">
         <v>574921</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A59" s="4">
         <v>45078</v>
       </c>
@@ -4524,14 +4702,17 @@
       <c r="T59" t="s">
         <v>0</v>
       </c>
-      <c r="U59">
+      <c r="U59" t="s">
+        <v>0</v>
+      </c>
+      <c r="V59">
         <v>1668232</v>
       </c>
-      <c r="V59">
+      <c r="W59">
         <v>538607</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A60" s="4">
         <v>45108</v>
       </c>
@@ -4592,14 +4773,17 @@
       <c r="T60" t="s">
         <v>0</v>
       </c>
-      <c r="U60">
+      <c r="U60" t="s">
+        <v>0</v>
+      </c>
+      <c r="V60">
         <v>1570789</v>
       </c>
-      <c r="V60">
+      <c r="W60">
         <v>591251</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A61" s="4">
         <v>45139</v>
       </c>
@@ -4660,14 +4844,17 @@
       <c r="T61" t="s">
         <v>0</v>
       </c>
-      <c r="U61">
+      <c r="U61" t="s">
+        <v>0</v>
+      </c>
+      <c r="V61">
         <v>1447499</v>
       </c>
-      <c r="V61">
+      <c r="W61">
         <v>579260</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A62" s="4">
         <v>45170</v>
       </c>
@@ -4728,14 +4915,17 @@
       <c r="T62" t="s">
         <v>0</v>
       </c>
-      <c r="U62">
+      <c r="U62" t="s">
+        <v>0</v>
+      </c>
+      <c r="V62">
         <v>1447499</v>
       </c>
-      <c r="V62">
+      <c r="W62">
         <v>577939</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A63" s="4">
         <v>45200</v>
       </c>
@@ -4796,14 +4986,17 @@
       <c r="T63" t="s">
         <v>0</v>
       </c>
-      <c r="U63">
+      <c r="U63" t="s">
+        <v>0</v>
+      </c>
+      <c r="V63">
         <v>1447499</v>
       </c>
-      <c r="V63">
+      <c r="W63">
         <v>554752</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A64" s="4">
         <v>45231</v>
       </c>
@@ -4864,14 +5057,17 @@
       <c r="T64" t="s">
         <v>0</v>
       </c>
-      <c r="U64">
+      <c r="U64" t="s">
+        <v>0</v>
+      </c>
+      <c r="V64">
         <v>1409811</v>
       </c>
-      <c r="V64">
+      <c r="W64">
         <v>566285</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A65" s="4">
         <v>45261</v>
       </c>
@@ -4932,129 +5128,132 @@
       <c r="T65" t="s">
         <v>0</v>
       </c>
-      <c r="U65">
+      <c r="U65" t="s">
+        <v>0</v>
+      </c>
+      <c r="V65">
         <v>1409811</v>
       </c>
-      <c r="V65">
+      <c r="W65">
         <v>586291</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A66" s="4"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A67" s="4"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A68" s="4"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A69" s="4"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A70" s="4"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A71" s="4"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A72" s="4"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A73" s="4"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A74" s="4"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A75" s="4"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A76" s="4"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A77" s="4"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A78" s="4"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A79" s="4"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A80" s="4"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A81" s="4"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A82" s="4"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A83" s="4"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A84" s="4"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A85" s="4"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A86" s="4"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A87" s="4"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A88" s="4"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A89" s="4"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -5072,9 +5271,10 @@
       <c r="Q89" s="1"/>
       <c r="R89" s="1"/>
       <c r="S89" s="1"/>
-      <c r="T89" s="3"/>
-    </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T89" s="1"/>
+      <c r="U89" s="3"/>
+    </row>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A90" s="4"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -5092,9 +5292,10 @@
       <c r="Q90" s="1"/>
       <c r="R90" s="1"/>
       <c r="S90" s="1"/>
-      <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T90" s="1"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A91" s="4"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -5112,9 +5313,10 @@
       <c r="Q91" s="1"/>
       <c r="R91" s="1"/>
       <c r="S91" s="1"/>
-      <c r="T91" s="3"/>
-    </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T91" s="1"/>
+      <c r="U91" s="3"/>
+    </row>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A92" s="4"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -5132,9 +5334,10 @@
       <c r="Q92" s="1"/>
       <c r="R92" s="1"/>
       <c r="S92" s="1"/>
-      <c r="T92" s="3"/>
-    </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T92" s="1"/>
+      <c r="U92" s="3"/>
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A93" s="4"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -5152,9 +5355,10 @@
       <c r="Q93" s="1"/>
       <c r="R93" s="1"/>
       <c r="S93" s="1"/>
-      <c r="T93" s="3"/>
-    </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T93" s="1"/>
+      <c r="U93" s="3"/>
+    </row>
+    <row r="94" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A94" s="4"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -5172,9 +5376,10 @@
       <c r="Q94" s="1"/>
       <c r="R94" s="1"/>
       <c r="S94" s="1"/>
-      <c r="T94" s="3"/>
-    </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T94" s="1"/>
+      <c r="U94" s="3"/>
+    </row>
+    <row r="95" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A95" s="4"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -5192,9 +5397,10 @@
       <c r="Q95" s="1"/>
       <c r="R95" s="1"/>
       <c r="S95" s="1"/>
-      <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T95" s="1"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A96" s="4"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -5212,9 +5418,10 @@
       <c r="Q96" s="1"/>
       <c r="R96" s="1"/>
       <c r="S96" s="1"/>
-      <c r="T96" s="3"/>
-    </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T96" s="1"/>
+      <c r="U96" s="3"/>
+    </row>
+    <row r="97" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A97" s="4"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -5232,9 +5439,10 @@
       <c r="Q97" s="1"/>
       <c r="R97" s="1"/>
       <c r="S97" s="1"/>
-      <c r="T97" s="3"/>
-    </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T97" s="1"/>
+      <c r="U97" s="3"/>
+    </row>
+    <row r="98" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A98" s="4"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -5252,9 +5460,10 @@
       <c r="Q98" s="1"/>
       <c r="R98" s="1"/>
       <c r="S98" s="1"/>
-      <c r="T98" s="3"/>
-    </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T98" s="1"/>
+      <c r="U98" s="3"/>
+    </row>
+    <row r="99" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A99" s="4"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -5272,9 +5481,10 @@
       <c r="Q99" s="1"/>
       <c r="R99" s="1"/>
       <c r="S99" s="1"/>
-      <c r="T99" s="3"/>
-    </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T99" s="1"/>
+      <c r="U99" s="3"/>
+    </row>
+    <row r="100" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A100" s="4"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -5292,9 +5502,10 @@
       <c r="Q100" s="1"/>
       <c r="R100" s="1"/>
       <c r="S100" s="1"/>
-      <c r="T100" s="3"/>
-    </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T100" s="1"/>
+      <c r="U100" s="3"/>
+    </row>
+    <row r="101" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A101" s="4"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -5312,9 +5523,10 @@
       <c r="Q101" s="1"/>
       <c r="R101" s="1"/>
       <c r="S101" s="1"/>
-      <c r="T101" s="3"/>
-    </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T101" s="1"/>
+      <c r="U101" s="3"/>
+    </row>
+    <row r="102" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A102" s="4"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -5332,9 +5544,10 @@
       <c r="Q102" s="1"/>
       <c r="R102" s="1"/>
       <c r="S102" s="1"/>
-      <c r="T102" s="3"/>
-    </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T102" s="1"/>
+      <c r="U102" s="3"/>
+    </row>
+    <row r="103" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A103" s="4"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -5352,9 +5565,10 @@
       <c r="Q103" s="1"/>
       <c r="R103" s="1"/>
       <c r="S103" s="1"/>
-      <c r="T103" s="3"/>
-    </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T103" s="1"/>
+      <c r="U103" s="3"/>
+    </row>
+    <row r="104" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A104" s="4"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -5372,9 +5586,10 @@
       <c r="Q104" s="1"/>
       <c r="R104" s="1"/>
       <c r="S104" s="1"/>
-      <c r="T104" s="3"/>
-    </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T104" s="1"/>
+      <c r="U104" s="3"/>
+    </row>
+    <row r="105" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A105" s="4"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -5392,9 +5607,10 @@
       <c r="Q105" s="1"/>
       <c r="R105" s="1"/>
       <c r="S105" s="1"/>
-      <c r="T105" s="3"/>
-    </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T105" s="1"/>
+      <c r="U105" s="3"/>
+    </row>
+    <row r="106" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A106" s="4"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -5412,9 +5628,10 @@
       <c r="Q106" s="1"/>
       <c r="R106" s="1"/>
       <c r="S106" s="1"/>
-      <c r="T106" s="3"/>
-    </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T106" s="1"/>
+      <c r="U106" s="3"/>
+    </row>
+    <row r="107" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A107" s="4"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -5432,9 +5649,10 @@
       <c r="Q107" s="1"/>
       <c r="R107" s="1"/>
       <c r="S107" s="1"/>
-      <c r="T107" s="3"/>
-    </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T107" s="1"/>
+      <c r="U107" s="3"/>
+    </row>
+    <row r="108" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A108" s="4"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -5452,9 +5670,10 @@
       <c r="Q108" s="1"/>
       <c r="R108" s="1"/>
       <c r="S108" s="1"/>
-      <c r="T108" s="3"/>
-    </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T108" s="1"/>
+      <c r="U108" s="3"/>
+    </row>
+    <row r="109" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A109" s="4"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -5472,9 +5691,10 @@
       <c r="Q109" s="1"/>
       <c r="R109" s="1"/>
       <c r="S109" s="1"/>
-      <c r="T109" s="3"/>
-    </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T109" s="1"/>
+      <c r="U109" s="3"/>
+    </row>
+    <row r="110" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A110" s="4"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -5492,9 +5712,10 @@
       <c r="Q110" s="1"/>
       <c r="R110" s="1"/>
       <c r="S110" s="1"/>
-      <c r="T110" s="3"/>
-    </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T110" s="1"/>
+      <c r="U110" s="3"/>
+    </row>
+    <row r="111" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A111" s="4"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -5512,9 +5733,10 @@
       <c r="Q111" s="1"/>
       <c r="R111" s="1"/>
       <c r="S111" s="1"/>
-      <c r="T111" s="3"/>
-    </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T111" s="1"/>
+      <c r="U111" s="3"/>
+    </row>
+    <row r="112" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A112" s="4"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -5532,9 +5754,10 @@
       <c r="Q112" s="1"/>
       <c r="R112" s="1"/>
       <c r="S112" s="1"/>
-      <c r="T112" s="3"/>
-    </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T112" s="1"/>
+      <c r="U112" s="3"/>
+    </row>
+    <row r="113" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A113" s="4"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -5552,9 +5775,10 @@
       <c r="Q113" s="1"/>
       <c r="R113" s="1"/>
       <c r="S113" s="1"/>
-      <c r="T113" s="3"/>
-    </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T113" s="1"/>
+      <c r="U113" s="3"/>
+    </row>
+    <row r="114" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A114" s="4"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -5572,9 +5796,10 @@
       <c r="Q114" s="1"/>
       <c r="R114" s="1"/>
       <c r="S114" s="1"/>
-      <c r="T114" s="3"/>
-    </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T114" s="1"/>
+      <c r="U114" s="3"/>
+    </row>
+    <row r="115" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A115" s="4"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -5592,9 +5817,10 @@
       <c r="Q115" s="1"/>
       <c r="R115" s="1"/>
       <c r="S115" s="1"/>
-      <c r="T115" s="3"/>
-    </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T115" s="1"/>
+      <c r="U115" s="3"/>
+    </row>
+    <row r="116" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A116" s="4"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -5612,9 +5838,10 @@
       <c r="Q116" s="1"/>
       <c r="R116" s="1"/>
       <c r="S116" s="1"/>
-      <c r="T116" s="3"/>
-    </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T116" s="1"/>
+      <c r="U116" s="3"/>
+    </row>
+    <row r="117" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A117" s="4"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -5632,9 +5859,10 @@
       <c r="Q117" s="1"/>
       <c r="R117" s="1"/>
       <c r="S117" s="1"/>
-      <c r="T117" s="3"/>
-    </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T117" s="1"/>
+      <c r="U117" s="3"/>
+    </row>
+    <row r="118" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A118" s="4"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -5652,9 +5880,10 @@
       <c r="Q118" s="1"/>
       <c r="R118" s="1"/>
       <c r="S118" s="1"/>
-      <c r="T118" s="3"/>
-    </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T118" s="1"/>
+      <c r="U118" s="3"/>
+    </row>
+    <row r="119" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A119" s="4"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -5672,9 +5901,10 @@
       <c r="Q119" s="1"/>
       <c r="R119" s="1"/>
       <c r="S119" s="1"/>
-      <c r="T119" s="3"/>
-    </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T119" s="1"/>
+      <c r="U119" s="3"/>
+    </row>
+    <row r="120" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A120" s="4"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -5692,9 +5922,10 @@
       <c r="Q120" s="1"/>
       <c r="R120" s="1"/>
       <c r="S120" s="1"/>
-      <c r="T120" s="3"/>
-    </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T120" s="1"/>
+      <c r="U120" s="3"/>
+    </row>
+    <row r="121" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A121" s="4"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -5712,9 +5943,10 @@
       <c r="Q121" s="1"/>
       <c r="R121" s="1"/>
       <c r="S121" s="1"/>
-      <c r="T121" s="3"/>
-    </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T121" s="1"/>
+      <c r="U121" s="3"/>
+    </row>
+    <row r="122" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A122" s="4"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -5732,9 +5964,10 @@
       <c r="Q122" s="1"/>
       <c r="R122" s="1"/>
       <c r="S122" s="1"/>
-      <c r="T122" s="3"/>
-    </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T122" s="1"/>
+      <c r="U122" s="3"/>
+    </row>
+    <row r="123" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A123" s="4"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -5752,9 +5985,10 @@
       <c r="Q123" s="1"/>
       <c r="R123" s="1"/>
       <c r="S123" s="1"/>
-      <c r="T123" s="3"/>
-    </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T123" s="1"/>
+      <c r="U123" s="3"/>
+    </row>
+    <row r="124" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A124" s="4"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -5772,9 +6006,10 @@
       <c r="Q124" s="1"/>
       <c r="R124" s="1"/>
       <c r="S124" s="1"/>
-      <c r="T124" s="3"/>
-    </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T124" s="1"/>
+      <c r="U124" s="3"/>
+    </row>
+    <row r="125" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A125" s="4"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -5792,9 +6027,10 @@
       <c r="Q125" s="1"/>
       <c r="R125" s="1"/>
       <c r="S125" s="1"/>
-      <c r="T125" s="3"/>
-    </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T125" s="1"/>
+      <c r="U125" s="3"/>
+    </row>
+    <row r="126" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A126" s="4"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -5812,9 +6048,10 @@
       <c r="Q126" s="1"/>
       <c r="R126" s="1"/>
       <c r="S126" s="1"/>
-      <c r="T126" s="3"/>
-    </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T126" s="1"/>
+      <c r="U126" s="3"/>
+    </row>
+    <row r="127" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A127" s="4"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -5832,9 +6069,10 @@
       <c r="Q127" s="1"/>
       <c r="R127" s="1"/>
       <c r="S127" s="1"/>
-      <c r="T127" s="3"/>
-    </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T127" s="1"/>
+      <c r="U127" s="3"/>
+    </row>
+    <row r="128" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A128" s="4"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -5852,9 +6090,10 @@
       <c r="Q128" s="1"/>
       <c r="R128" s="1"/>
       <c r="S128" s="1"/>
-      <c r="T128" s="3"/>
-    </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T128" s="1"/>
+      <c r="U128" s="3"/>
+    </row>
+    <row r="129" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A129" s="4"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -5872,9 +6111,10 @@
       <c r="Q129" s="1"/>
       <c r="R129" s="1"/>
       <c r="S129" s="1"/>
-      <c r="T129" s="3"/>
-    </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T129" s="1"/>
+      <c r="U129" s="3"/>
+    </row>
+    <row r="130" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A130" s="4"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -5892,9 +6132,10 @@
       <c r="Q130" s="1"/>
       <c r="R130" s="1"/>
       <c r="S130" s="1"/>
-      <c r="T130" s="3"/>
-    </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T130" s="1"/>
+      <c r="U130" s="3"/>
+    </row>
+    <row r="131" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A131" s="4"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -5912,9 +6153,10 @@
       <c r="Q131" s="1"/>
       <c r="R131" s="1"/>
       <c r="S131" s="1"/>
-      <c r="T131" s="3"/>
-    </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T131" s="1"/>
+      <c r="U131" s="3"/>
+    </row>
+    <row r="132" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A132" s="4"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -5932,9 +6174,10 @@
       <c r="Q132" s="1"/>
       <c r="R132" s="1"/>
       <c r="S132" s="1"/>
-      <c r="T132" s="3"/>
-    </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T132" s="1"/>
+      <c r="U132" s="3"/>
+    </row>
+    <row r="133" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A133" s="4"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -5952,9 +6195,10 @@
       <c r="Q133" s="1"/>
       <c r="R133" s="1"/>
       <c r="S133" s="1"/>
-      <c r="T133" s="3"/>
-    </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T133" s="1"/>
+      <c r="U133" s="3"/>
+    </row>
+    <row r="134" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A134" s="4"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -5972,9 +6216,10 @@
       <c r="Q134" s="1"/>
       <c r="R134" s="1"/>
       <c r="S134" s="1"/>
-      <c r="T134" s="3"/>
-    </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T134" s="1"/>
+      <c r="U134" s="3"/>
+    </row>
+    <row r="135" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A135" s="4"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -5992,9 +6237,10 @@
       <c r="Q135" s="1"/>
       <c r="R135" s="1"/>
       <c r="S135" s="1"/>
-      <c r="T135" s="3"/>
-    </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T135" s="1"/>
+      <c r="U135" s="3"/>
+    </row>
+    <row r="136" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A136" s="4"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -6012,9 +6258,10 @@
       <c r="Q136" s="1"/>
       <c r="R136" s="1"/>
       <c r="S136" s="1"/>
-      <c r="T136" s="3"/>
-    </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T136" s="1"/>
+      <c r="U136" s="3"/>
+    </row>
+    <row r="137" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A137" s="4"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -6032,9 +6279,10 @@
       <c r="Q137" s="1"/>
       <c r="R137" s="1"/>
       <c r="S137" s="1"/>
-      <c r="T137" s="3"/>
-    </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T137" s="1"/>
+      <c r="U137" s="3"/>
+    </row>
+    <row r="138" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A138" s="4"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -6052,9 +6300,10 @@
       <c r="Q138" s="1"/>
       <c r="R138" s="1"/>
       <c r="S138" s="1"/>
-      <c r="T138" s="3"/>
-    </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T138" s="1"/>
+      <c r="U138" s="3"/>
+    </row>
+    <row r="139" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A139" s="4"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -6072,9 +6321,10 @@
       <c r="Q139" s="1"/>
       <c r="R139" s="1"/>
       <c r="S139" s="1"/>
-      <c r="T139" s="3"/>
-    </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T139" s="1"/>
+      <c r="U139" s="3"/>
+    </row>
+    <row r="140" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A140" s="4"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -6092,9 +6342,10 @@
       <c r="Q140" s="1"/>
       <c r="R140" s="1"/>
       <c r="S140" s="1"/>
-      <c r="T140" s="3"/>
-    </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T140" s="1"/>
+      <c r="U140" s="3"/>
+    </row>
+    <row r="141" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A141" s="4"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -6112,9 +6363,10 @@
       <c r="Q141" s="1"/>
       <c r="R141" s="1"/>
       <c r="S141" s="1"/>
-      <c r="T141" s="3"/>
-    </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T141" s="1"/>
+      <c r="U141" s="3"/>
+    </row>
+    <row r="142" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A142" s="4"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -6132,9 +6384,10 @@
       <c r="Q142" s="1"/>
       <c r="R142" s="1"/>
       <c r="S142" s="1"/>
-      <c r="T142" s="3"/>
-    </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T142" s="1"/>
+      <c r="U142" s="3"/>
+    </row>
+    <row r="143" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A143" s="4"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -6152,9 +6405,10 @@
       <c r="Q143" s="1"/>
       <c r="R143" s="1"/>
       <c r="S143" s="1"/>
-      <c r="T143" s="3"/>
-    </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T143" s="1"/>
+      <c r="U143" s="3"/>
+    </row>
+    <row r="144" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A144" s="4"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -6172,9 +6426,10 @@
       <c r="Q144" s="1"/>
       <c r="R144" s="1"/>
       <c r="S144" s="1"/>
-      <c r="T144" s="3"/>
-    </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T144" s="1"/>
+      <c r="U144" s="3"/>
+    </row>
+    <row r="145" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A145" s="4"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -6192,9 +6447,10 @@
       <c r="Q145" s="1"/>
       <c r="R145" s="1"/>
       <c r="S145" s="1"/>
-      <c r="T145" s="3"/>
-    </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T145" s="1"/>
+      <c r="U145" s="3"/>
+    </row>
+    <row r="146" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A146" s="4"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -6212,9 +6468,10 @@
       <c r="Q146" s="1"/>
       <c r="R146" s="1"/>
       <c r="S146" s="1"/>
-      <c r="T146" s="3"/>
-    </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T146" s="1"/>
+      <c r="U146" s="3"/>
+    </row>
+    <row r="147" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A147" s="4"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -6232,9 +6489,10 @@
       <c r="Q147" s="1"/>
       <c r="R147" s="1"/>
       <c r="S147" s="1"/>
-      <c r="T147" s="3"/>
-    </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T147" s="1"/>
+      <c r="U147" s="3"/>
+    </row>
+    <row r="148" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A148" s="4"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -6252,9 +6510,10 @@
       <c r="Q148" s="1"/>
       <c r="R148" s="1"/>
       <c r="S148" s="1"/>
-      <c r="T148" s="3"/>
-    </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T148" s="1"/>
+      <c r="U148" s="3"/>
+    </row>
+    <row r="149" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A149" s="4"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -6272,9 +6531,10 @@
       <c r="Q149" s="1"/>
       <c r="R149" s="1"/>
       <c r="S149" s="1"/>
-      <c r="T149" s="3"/>
-    </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T149" s="1"/>
+      <c r="U149" s="3"/>
+    </row>
+    <row r="150" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A150" s="4"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -6292,9 +6552,10 @@
       <c r="Q150" s="1"/>
       <c r="R150" s="1"/>
       <c r="S150" s="1"/>
-      <c r="T150" s="3"/>
-    </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T150" s="1"/>
+      <c r="U150" s="3"/>
+    </row>
+    <row r="151" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A151" s="4"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -6312,9 +6573,10 @@
       <c r="Q151" s="1"/>
       <c r="R151" s="1"/>
       <c r="S151" s="1"/>
-      <c r="T151" s="3"/>
-    </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T151" s="1"/>
+      <c r="U151" s="3"/>
+    </row>
+    <row r="152" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A152" s="4"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -6332,9 +6594,10 @@
       <c r="Q152" s="1"/>
       <c r="R152" s="1"/>
       <c r="S152" s="1"/>
-      <c r="T152" s="3"/>
-    </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T152" s="1"/>
+      <c r="U152" s="3"/>
+    </row>
+    <row r="153" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A153" s="4"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -6352,9 +6615,10 @@
       <c r="Q153" s="1"/>
       <c r="R153" s="1"/>
       <c r="S153" s="1"/>
-      <c r="T153" s="3"/>
-    </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T153" s="1"/>
+      <c r="U153" s="3"/>
+    </row>
+    <row r="154" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A154" s="4"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -6372,9 +6636,10 @@
       <c r="Q154" s="1"/>
       <c r="R154" s="1"/>
       <c r="S154" s="1"/>
-      <c r="T154" s="3"/>
-    </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T154" s="1"/>
+      <c r="U154" s="3"/>
+    </row>
+    <row r="155" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A155" s="4"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -6392,9 +6657,10 @@
       <c r="Q155" s="1"/>
       <c r="R155" s="1"/>
       <c r="S155" s="1"/>
-      <c r="T155" s="3"/>
-    </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T155" s="1"/>
+      <c r="U155" s="3"/>
+    </row>
+    <row r="156" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A156" s="4"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -6412,9 +6678,10 @@
       <c r="Q156" s="1"/>
       <c r="R156" s="1"/>
       <c r="S156" s="1"/>
-      <c r="T156" s="3"/>
-    </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T156" s="1"/>
+      <c r="U156" s="3"/>
+    </row>
+    <row r="157" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A157" s="4"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -6432,9 +6699,10 @@
       <c r="Q157" s="1"/>
       <c r="R157" s="1"/>
       <c r="S157" s="1"/>
-      <c r="T157" s="3"/>
-    </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T157" s="1"/>
+      <c r="U157" s="3"/>
+    </row>
+    <row r="158" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A158" s="4"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -6452,9 +6720,10 @@
       <c r="Q158" s="1"/>
       <c r="R158" s="1"/>
       <c r="S158" s="1"/>
-      <c r="T158" s="3"/>
-    </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T158" s="1"/>
+      <c r="U158" s="3"/>
+    </row>
+    <row r="159" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A159" s="4"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -6472,9 +6741,10 @@
       <c r="Q159" s="1"/>
       <c r="R159" s="1"/>
       <c r="S159" s="1"/>
-      <c r="T159" s="3"/>
-    </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T159" s="1"/>
+      <c r="U159" s="3"/>
+    </row>
+    <row r="160" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A160" s="4"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -6492,9 +6762,10 @@
       <c r="Q160" s="1"/>
       <c r="R160" s="1"/>
       <c r="S160" s="1"/>
-      <c r="T160" s="3"/>
-    </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T160" s="1"/>
+      <c r="U160" s="3"/>
+    </row>
+    <row r="161" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A161" s="4"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -6512,9 +6783,10 @@
       <c r="Q161" s="1"/>
       <c r="R161" s="1"/>
       <c r="S161" s="1"/>
-      <c r="T161" s="3"/>
-    </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T161" s="1"/>
+      <c r="U161" s="3"/>
+    </row>
+    <row r="162" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A162" s="4"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -6532,9 +6804,10 @@
       <c r="Q162" s="1"/>
       <c r="R162" s="1"/>
       <c r="S162" s="1"/>
-      <c r="T162" s="3"/>
-    </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T162" s="1"/>
+      <c r="U162" s="3"/>
+    </row>
+    <row r="163" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A163" s="4"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -6552,9 +6825,10 @@
       <c r="Q163" s="1"/>
       <c r="R163" s="1"/>
       <c r="S163" s="1"/>
-      <c r="T163" s="3"/>
-    </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T163" s="1"/>
+      <c r="U163" s="3"/>
+    </row>
+    <row r="164" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A164" s="4"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -6572,9 +6846,10 @@
       <c r="Q164" s="1"/>
       <c r="R164" s="1"/>
       <c r="S164" s="1"/>
-      <c r="T164" s="3"/>
-    </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T164" s="1"/>
+      <c r="U164" s="3"/>
+    </row>
+    <row r="165" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A165" s="4"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -6592,9 +6867,10 @@
       <c r="Q165" s="1"/>
       <c r="R165" s="1"/>
       <c r="S165" s="1"/>
-      <c r="T165" s="3"/>
-    </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T165" s="1"/>
+      <c r="U165" s="3"/>
+    </row>
+    <row r="166" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A166" s="4"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -6612,9 +6888,10 @@
       <c r="Q166" s="1"/>
       <c r="R166" s="1"/>
       <c r="S166" s="1"/>
-      <c r="T166" s="3"/>
-    </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T166" s="1"/>
+      <c r="U166" s="3"/>
+    </row>
+    <row r="167" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A167" s="4"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -6632,9 +6909,10 @@
       <c r="Q167" s="1"/>
       <c r="R167" s="1"/>
       <c r="S167" s="1"/>
-      <c r="T167" s="3"/>
-    </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T167" s="1"/>
+      <c r="U167" s="3"/>
+    </row>
+    <row r="168" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A168" s="4"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -6652,9 +6930,10 @@
       <c r="Q168" s="1"/>
       <c r="R168" s="1"/>
       <c r="S168" s="1"/>
-      <c r="T168" s="3"/>
-    </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T168" s="1"/>
+      <c r="U168" s="3"/>
+    </row>
+    <row r="169" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A169" s="4"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -6672,9 +6951,10 @@
       <c r="Q169" s="1"/>
       <c r="R169" s="1"/>
       <c r="S169" s="1"/>
-      <c r="T169" s="3"/>
-    </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T169" s="1"/>
+      <c r="U169" s="3"/>
+    </row>
+    <row r="170" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A170" s="4"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -6692,9 +6972,10 @@
       <c r="Q170" s="1"/>
       <c r="R170" s="1"/>
       <c r="S170" s="1"/>
-      <c r="T170" s="3"/>
-    </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T170" s="1"/>
+      <c r="U170" s="3"/>
+    </row>
+    <row r="171" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A171" s="4"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -6712,9 +6993,10 @@
       <c r="Q171" s="1"/>
       <c r="R171" s="1"/>
       <c r="S171" s="1"/>
-      <c r="T171" s="3"/>
-    </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T171" s="1"/>
+      <c r="U171" s="3"/>
+    </row>
+    <row r="172" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A172" s="4"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -6732,9 +7014,10 @@
       <c r="Q172" s="1"/>
       <c r="R172" s="1"/>
       <c r="S172" s="1"/>
-      <c r="T172" s="3"/>
-    </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T172" s="1"/>
+      <c r="U172" s="3"/>
+    </row>
+    <row r="173" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A173" s="4"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -6752,9 +7035,10 @@
       <c r="Q173" s="1"/>
       <c r="R173" s="1"/>
       <c r="S173" s="1"/>
-      <c r="T173" s="3"/>
-    </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T173" s="1"/>
+      <c r="U173" s="3"/>
+    </row>
+    <row r="174" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A174" s="4"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -6772,9 +7056,10 @@
       <c r="Q174" s="1"/>
       <c r="R174" s="1"/>
       <c r="S174" s="1"/>
-      <c r="T174" s="3"/>
-    </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T174" s="1"/>
+      <c r="U174" s="3"/>
+    </row>
+    <row r="175" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A175" s="4"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -6792,9 +7077,10 @@
       <c r="Q175" s="1"/>
       <c r="R175" s="1"/>
       <c r="S175" s="1"/>
-      <c r="T175" s="3"/>
-    </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T175" s="1"/>
+      <c r="U175" s="3"/>
+    </row>
+    <row r="176" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A176" s="4"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -6812,9 +7098,10 @@
       <c r="Q176" s="1"/>
       <c r="R176" s="1"/>
       <c r="S176" s="1"/>
-      <c r="T176" s="3"/>
-    </row>
-    <row r="177" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T176" s="1"/>
+      <c r="U176" s="3"/>
+    </row>
+    <row r="177" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A177" s="4"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -6832,9 +7119,10 @@
       <c r="Q177" s="1"/>
       <c r="R177" s="1"/>
       <c r="S177" s="1"/>
-      <c r="T177" s="3"/>
-    </row>
-    <row r="178" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T177" s="1"/>
+      <c r="U177" s="3"/>
+    </row>
+    <row r="178" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A178" s="4"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -6852,9 +7140,10 @@
       <c r="Q178" s="1"/>
       <c r="R178" s="1"/>
       <c r="S178" s="1"/>
-      <c r="T178" s="3"/>
-    </row>
-    <row r="179" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T178" s="1"/>
+      <c r="U178" s="3"/>
+    </row>
+    <row r="179" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A179" s="4"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -6872,9 +7161,10 @@
       <c r="Q179" s="1"/>
       <c r="R179" s="1"/>
       <c r="S179" s="1"/>
-      <c r="T179" s="3"/>
-    </row>
-    <row r="180" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T179" s="1"/>
+      <c r="U179" s="3"/>
+    </row>
+    <row r="180" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A180" s="4"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -6892,9 +7182,10 @@
       <c r="Q180" s="1"/>
       <c r="R180" s="1"/>
       <c r="S180" s="1"/>
-      <c r="T180" s="3"/>
-    </row>
-    <row r="181" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T180" s="1"/>
+      <c r="U180" s="3"/>
+    </row>
+    <row r="181" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A181" s="4"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -6912,9 +7203,10 @@
       <c r="Q181" s="1"/>
       <c r="R181" s="1"/>
       <c r="S181" s="1"/>
-      <c r="T181" s="3"/>
-    </row>
-    <row r="182" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T181" s="1"/>
+      <c r="U181" s="3"/>
+    </row>
+    <row r="182" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A182" s="4"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -6932,9 +7224,10 @@
       <c r="Q182" s="1"/>
       <c r="R182" s="1"/>
       <c r="S182" s="1"/>
-      <c r="T182" s="3"/>
-    </row>
-    <row r="183" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T182" s="1"/>
+      <c r="U182" s="3"/>
+    </row>
+    <row r="183" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A183" s="4"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -6952,9 +7245,10 @@
       <c r="Q183" s="1"/>
       <c r="R183" s="1"/>
       <c r="S183" s="1"/>
-      <c r="T183" s="3"/>
-    </row>
-    <row r="184" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T183" s="1"/>
+      <c r="U183" s="3"/>
+    </row>
+    <row r="184" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A184" s="4"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -6972,9 +7266,10 @@
       <c r="Q184" s="1"/>
       <c r="R184" s="1"/>
       <c r="S184" s="1"/>
-      <c r="T184" s="3"/>
-    </row>
-    <row r="185" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T184" s="1"/>
+      <c r="U184" s="3"/>
+    </row>
+    <row r="185" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A185" s="4"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -6992,9 +7287,10 @@
       <c r="Q185" s="1"/>
       <c r="R185" s="1"/>
       <c r="S185" s="1"/>
-      <c r="T185" s="3"/>
-    </row>
-    <row r="186" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T185" s="1"/>
+      <c r="U185" s="3"/>
+    </row>
+    <row r="186" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A186" s="4"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -7012,9 +7308,10 @@
       <c r="Q186" s="1"/>
       <c r="R186" s="1"/>
       <c r="S186" s="1"/>
-      <c r="T186" s="3"/>
-    </row>
-    <row r="187" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T186" s="1"/>
+      <c r="U186" s="3"/>
+    </row>
+    <row r="187" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A187" s="4"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -7032,9 +7329,10 @@
       <c r="Q187" s="1"/>
       <c r="R187" s="1"/>
       <c r="S187" s="1"/>
-      <c r="T187" s="3"/>
-    </row>
-    <row r="188" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T187" s="1"/>
+      <c r="U187" s="3"/>
+    </row>
+    <row r="188" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A188" s="4"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -7052,9 +7350,10 @@
       <c r="Q188" s="1"/>
       <c r="R188" s="1"/>
       <c r="S188" s="1"/>
-      <c r="T188" s="3"/>
-    </row>
-    <row r="189" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T188" s="1"/>
+      <c r="U188" s="3"/>
+    </row>
+    <row r="189" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A189" s="4"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -7072,9 +7371,10 @@
       <c r="Q189" s="1"/>
       <c r="R189" s="1"/>
       <c r="S189" s="1"/>
-      <c r="T189" s="3"/>
-    </row>
-    <row r="190" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T189" s="1"/>
+      <c r="U189" s="3"/>
+    </row>
+    <row r="190" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A190" s="4"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -7092,9 +7392,10 @@
       <c r="Q190" s="1"/>
       <c r="R190" s="1"/>
       <c r="S190" s="1"/>
-      <c r="T190" s="3"/>
-    </row>
-    <row r="191" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T190" s="1"/>
+      <c r="U190" s="3"/>
+    </row>
+    <row r="191" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A191" s="4"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -7112,9 +7413,10 @@
       <c r="Q191" s="1"/>
       <c r="R191" s="1"/>
       <c r="S191" s="1"/>
-      <c r="T191" s="3"/>
-    </row>
-    <row r="192" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T191" s="1"/>
+      <c r="U191" s="3"/>
+    </row>
+    <row r="192" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A192" s="4"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -7132,9 +7434,10 @@
       <c r="Q192" s="1"/>
       <c r="R192" s="1"/>
       <c r="S192" s="1"/>
-      <c r="T192" s="3"/>
-    </row>
-    <row r="193" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T192" s="1"/>
+      <c r="U192" s="3"/>
+    </row>
+    <row r="193" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A193" s="4"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -7152,9 +7455,10 @@
       <c r="Q193" s="1"/>
       <c r="R193" s="1"/>
       <c r="S193" s="1"/>
-      <c r="T193" s="3"/>
-    </row>
-    <row r="194" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T193" s="1"/>
+      <c r="U193" s="3"/>
+    </row>
+    <row r="194" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A194" s="4"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -7172,9 +7476,10 @@
       <c r="Q194" s="1"/>
       <c r="R194" s="1"/>
       <c r="S194" s="1"/>
-      <c r="T194" s="3"/>
-    </row>
-    <row r="195" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T194" s="1"/>
+      <c r="U194" s="3"/>
+    </row>
+    <row r="195" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A195" s="4"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -7192,9 +7497,10 @@
       <c r="Q195" s="1"/>
       <c r="R195" s="1"/>
       <c r="S195" s="1"/>
-      <c r="T195" s="3"/>
-    </row>
-    <row r="196" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T195" s="1"/>
+      <c r="U195" s="3"/>
+    </row>
+    <row r="196" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A196" s="4"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -7212,9 +7518,10 @@
       <c r="Q196" s="1"/>
       <c r="R196" s="1"/>
       <c r="S196" s="1"/>
-      <c r="T196" s="3"/>
-    </row>
-    <row r="197" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T196" s="1"/>
+      <c r="U196" s="3"/>
+    </row>
+    <row r="197" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A197" s="4"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -7232,9 +7539,10 @@
       <c r="Q197" s="1"/>
       <c r="R197" s="1"/>
       <c r="S197" s="1"/>
-      <c r="T197" s="3"/>
-    </row>
-    <row r="198" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T197" s="1"/>
+      <c r="U197" s="3"/>
+    </row>
+    <row r="198" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A198" s="4"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -7252,9 +7560,10 @@
       <c r="Q198" s="1"/>
       <c r="R198" s="1"/>
       <c r="S198" s="1"/>
-      <c r="T198" s="3"/>
-    </row>
-    <row r="199" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T198" s="1"/>
+      <c r="U198" s="3"/>
+    </row>
+    <row r="199" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A199" s="4"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -7272,9 +7581,10 @@
       <c r="Q199" s="1"/>
       <c r="R199" s="1"/>
       <c r="S199" s="1"/>
-      <c r="T199" s="3"/>
-    </row>
-    <row r="200" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T199" s="1"/>
+      <c r="U199" s="3"/>
+    </row>
+    <row r="200" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A200" s="4"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -7292,9 +7602,10 @@
       <c r="Q200" s="1"/>
       <c r="R200" s="1"/>
       <c r="S200" s="1"/>
-      <c r="T200" s="3"/>
-    </row>
-    <row r="201" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T200" s="1"/>
+      <c r="U200" s="3"/>
+    </row>
+    <row r="201" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A201" s="4"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -7312,9 +7623,10 @@
       <c r="Q201" s="1"/>
       <c r="R201" s="1"/>
       <c r="S201" s="1"/>
-      <c r="T201" s="3"/>
-    </row>
-    <row r="202" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T201" s="1"/>
+      <c r="U201" s="3"/>
+    </row>
+    <row r="202" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A202" s="4"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -7332,9 +7644,10 @@
       <c r="Q202" s="1"/>
       <c r="R202" s="1"/>
       <c r="S202" s="1"/>
-      <c r="T202" s="3"/>
-    </row>
-    <row r="203" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T202" s="1"/>
+      <c r="U202" s="3"/>
+    </row>
+    <row r="203" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A203" s="4"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -7352,9 +7665,10 @@
       <c r="Q203" s="1"/>
       <c r="R203" s="1"/>
       <c r="S203" s="1"/>
-      <c r="T203" s="3"/>
-    </row>
-    <row r="204" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T203" s="1"/>
+      <c r="U203" s="3"/>
+    </row>
+    <row r="204" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A204" s="4"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -7372,9 +7686,10 @@
       <c r="Q204" s="1"/>
       <c r="R204" s="1"/>
       <c r="S204" s="1"/>
-      <c r="T204" s="3"/>
-    </row>
-    <row r="205" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T204" s="1"/>
+      <c r="U204" s="3"/>
+    </row>
+    <row r="205" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A205" s="4"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -7392,9 +7707,10 @@
       <c r="Q205" s="1"/>
       <c r="R205" s="1"/>
       <c r="S205" s="1"/>
-      <c r="T205" s="3"/>
-    </row>
-    <row r="206" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T205" s="1"/>
+      <c r="U205" s="3"/>
+    </row>
+    <row r="206" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A206" s="4"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -7412,9 +7728,10 @@
       <c r="Q206" s="1"/>
       <c r="R206" s="1"/>
       <c r="S206" s="1"/>
-      <c r="T206" s="3"/>
-    </row>
-    <row r="207" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T206" s="1"/>
+      <c r="U206" s="3"/>
+    </row>
+    <row r="207" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A207" s="4"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -7432,9 +7749,10 @@
       <c r="Q207" s="1"/>
       <c r="R207" s="1"/>
       <c r="S207" s="1"/>
-      <c r="T207" s="3"/>
-    </row>
-    <row r="208" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T207" s="1"/>
+      <c r="U207" s="3"/>
+    </row>
+    <row r="208" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A208" s="4"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -7452,9 +7770,10 @@
       <c r="Q208" s="1"/>
       <c r="R208" s="1"/>
       <c r="S208" s="1"/>
-      <c r="T208" s="3"/>
-    </row>
-    <row r="209" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T208" s="1"/>
+      <c r="U208" s="3"/>
+    </row>
+    <row r="209" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A209" s="4"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -7472,9 +7791,10 @@
       <c r="Q209" s="1"/>
       <c r="R209" s="1"/>
       <c r="S209" s="1"/>
-      <c r="T209" s="3"/>
-    </row>
-    <row r="210" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T209" s="1"/>
+      <c r="U209" s="3"/>
+    </row>
+    <row r="210" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A210" s="4"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -7492,9 +7812,10 @@
       <c r="Q210" s="1"/>
       <c r="R210" s="1"/>
       <c r="S210" s="1"/>
-      <c r="T210" s="3"/>
-    </row>
-    <row r="211" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T210" s="1"/>
+      <c r="U210" s="3"/>
+    </row>
+    <row r="211" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A211" s="4"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -7512,9 +7833,10 @@
       <c r="Q211" s="1"/>
       <c r="R211" s="1"/>
       <c r="S211" s="1"/>
-      <c r="T211" s="3"/>
-    </row>
-    <row r="212" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T211" s="1"/>
+      <c r="U211" s="3"/>
+    </row>
+    <row r="212" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A212" s="4"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -7532,9 +7854,10 @@
       <c r="Q212" s="1"/>
       <c r="R212" s="1"/>
       <c r="S212" s="1"/>
-      <c r="T212" s="3"/>
-    </row>
-    <row r="213" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T212" s="1"/>
+      <c r="U212" s="3"/>
+    </row>
+    <row r="213" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A213" s="4"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -7552,9 +7875,10 @@
       <c r="Q213" s="1"/>
       <c r="R213" s="1"/>
       <c r="S213" s="1"/>
-      <c r="T213" s="3"/>
-    </row>
-    <row r="214" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T213" s="1"/>
+      <c r="U213" s="3"/>
+    </row>
+    <row r="214" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A214" s="4"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -7572,9 +7896,10 @@
       <c r="Q214" s="1"/>
       <c r="R214" s="1"/>
       <c r="S214" s="1"/>
-      <c r="T214" s="3"/>
-    </row>
-    <row r="215" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T214" s="1"/>
+      <c r="U214" s="3"/>
+    </row>
+    <row r="215" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A215" s="4"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -7592,9 +7917,10 @@
       <c r="Q215" s="1"/>
       <c r="R215" s="1"/>
       <c r="S215" s="1"/>
-      <c r="T215" s="3"/>
-    </row>
-    <row r="216" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T215" s="1"/>
+      <c r="U215" s="3"/>
+    </row>
+    <row r="216" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A216" s="4"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -7612,9 +7938,10 @@
       <c r="Q216" s="1"/>
       <c r="R216" s="1"/>
       <c r="S216" s="1"/>
-      <c r="T216" s="3"/>
-    </row>
-    <row r="217" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T216" s="1"/>
+      <c r="U216" s="3"/>
+    </row>
+    <row r="217" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A217" s="4"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -7632,9 +7959,10 @@
       <c r="Q217" s="1"/>
       <c r="R217" s="1"/>
       <c r="S217" s="1"/>
-      <c r="T217" s="3"/>
-    </row>
-    <row r="218" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T217" s="1"/>
+      <c r="U217" s="3"/>
+    </row>
+    <row r="218" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A218" s="4"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -7652,9 +7980,10 @@
       <c r="Q218" s="1"/>
       <c r="R218" s="1"/>
       <c r="S218" s="1"/>
-      <c r="T218" s="3"/>
-    </row>
-    <row r="219" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T218" s="1"/>
+      <c r="U218" s="3"/>
+    </row>
+    <row r="219" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A219" s="4"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -7672,9 +8001,10 @@
       <c r="Q219" s="1"/>
       <c r="R219" s="1"/>
       <c r="S219" s="1"/>
-      <c r="T219" s="3"/>
-    </row>
-    <row r="220" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T219" s="1"/>
+      <c r="U219" s="3"/>
+    </row>
+    <row r="220" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A220" s="4"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -7692,9 +8022,10 @@
       <c r="Q220" s="1"/>
       <c r="R220" s="1"/>
       <c r="S220" s="1"/>
-      <c r="T220" s="3"/>
-    </row>
-    <row r="221" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T220" s="1"/>
+      <c r="U220" s="3"/>
+    </row>
+    <row r="221" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A221" s="4"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -7712,9 +8043,10 @@
       <c r="Q221" s="1"/>
       <c r="R221" s="1"/>
       <c r="S221" s="1"/>
-      <c r="T221" s="3"/>
-    </row>
-    <row r="222" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T221" s="1"/>
+      <c r="U221" s="3"/>
+    </row>
+    <row r="222" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A222" s="4"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -7732,9 +8064,10 @@
       <c r="Q222" s="1"/>
       <c r="R222" s="1"/>
       <c r="S222" s="1"/>
-      <c r="T222" s="3"/>
-    </row>
-    <row r="223" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T222" s="1"/>
+      <c r="U222" s="3"/>
+    </row>
+    <row r="223" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A223" s="4"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -7752,9 +8085,10 @@
       <c r="Q223" s="1"/>
       <c r="R223" s="1"/>
       <c r="S223" s="1"/>
-      <c r="T223" s="3"/>
-    </row>
-    <row r="224" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T223" s="1"/>
+      <c r="U223" s="3"/>
+    </row>
+    <row r="224" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A224" s="4"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -7772,9 +8106,10 @@
       <c r="Q224" s="1"/>
       <c r="R224" s="1"/>
       <c r="S224" s="1"/>
-      <c r="T224" s="3"/>
-    </row>
-    <row r="225" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T224" s="1"/>
+      <c r="U224" s="3"/>
+    </row>
+    <row r="225" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A225" s="4"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -7792,9 +8127,10 @@
       <c r="Q225" s="1"/>
       <c r="R225" s="1"/>
       <c r="S225" s="1"/>
-      <c r="T225" s="3"/>
-    </row>
-    <row r="226" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T225" s="1"/>
+      <c r="U225" s="3"/>
+    </row>
+    <row r="226" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A226" s="4"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -7812,9 +8148,10 @@
       <c r="Q226" s="1"/>
       <c r="R226" s="1"/>
       <c r="S226" s="1"/>
-      <c r="T226" s="3"/>
-    </row>
-    <row r="227" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T226" s="1"/>
+      <c r="U226" s="3"/>
+    </row>
+    <row r="227" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A227" s="4"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -7832,9 +8169,10 @@
       <c r="Q227" s="1"/>
       <c r="R227" s="1"/>
       <c r="S227" s="1"/>
-      <c r="T227" s="3"/>
-    </row>
-    <row r="228" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T227" s="1"/>
+      <c r="U227" s="3"/>
+    </row>
+    <row r="228" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A228" s="4"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -7852,9 +8190,10 @@
       <c r="Q228" s="1"/>
       <c r="R228" s="1"/>
       <c r="S228" s="1"/>
-      <c r="T228" s="3"/>
-    </row>
-    <row r="229" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T228" s="1"/>
+      <c r="U228" s="3"/>
+    </row>
+    <row r="229" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A229" s="4"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -7872,9 +8211,10 @@
       <c r="Q229" s="1"/>
       <c r="R229" s="1"/>
       <c r="S229" s="1"/>
-      <c r="T229" s="3"/>
-    </row>
-    <row r="230" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T229" s="1"/>
+      <c r="U229" s="3"/>
+    </row>
+    <row r="230" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A230" s="4"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -7892,9 +8232,10 @@
       <c r="Q230" s="1"/>
       <c r="R230" s="1"/>
       <c r="S230" s="1"/>
-      <c r="T230" s="3"/>
-    </row>
-    <row r="231" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T230" s="1"/>
+      <c r="U230" s="3"/>
+    </row>
+    <row r="231" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A231" s="4"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -7912,9 +8253,10 @@
       <c r="Q231" s="1"/>
       <c r="R231" s="1"/>
       <c r="S231" s="1"/>
-      <c r="T231" s="3"/>
-    </row>
-    <row r="232" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T231" s="1"/>
+      <c r="U231" s="3"/>
+    </row>
+    <row r="232" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A232" s="4"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -7932,9 +8274,10 @@
       <c r="Q232" s="1"/>
       <c r="R232" s="1"/>
       <c r="S232" s="1"/>
-      <c r="T232" s="3"/>
-    </row>
-    <row r="233" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T232" s="1"/>
+      <c r="U232" s="3"/>
+    </row>
+    <row r="233" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A233" s="4"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -7952,9 +8295,10 @@
       <c r="Q233" s="1"/>
       <c r="R233" s="1"/>
       <c r="S233" s="1"/>
-      <c r="T233" s="3"/>
-    </row>
-    <row r="234" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T233" s="1"/>
+      <c r="U233" s="3"/>
+    </row>
+    <row r="234" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A234" s="4"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -7972,9 +8316,10 @@
       <c r="Q234" s="1"/>
       <c r="R234" s="1"/>
       <c r="S234" s="1"/>
-      <c r="T234" s="3"/>
-    </row>
-    <row r="235" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T234" s="1"/>
+      <c r="U234" s="3"/>
+    </row>
+    <row r="235" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A235" s="4"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -7992,9 +8337,10 @@
       <c r="Q235" s="1"/>
       <c r="R235" s="1"/>
       <c r="S235" s="1"/>
-      <c r="T235" s="3"/>
-    </row>
-    <row r="236" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T235" s="1"/>
+      <c r="U235" s="3"/>
+    </row>
+    <row r="236" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A236" s="4"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -8012,9 +8358,10 @@
       <c r="Q236" s="1"/>
       <c r="R236" s="1"/>
       <c r="S236" s="1"/>
-      <c r="T236" s="3"/>
-    </row>
-    <row r="237" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T236" s="1"/>
+      <c r="U236" s="3"/>
+    </row>
+    <row r="237" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A237" s="4"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -8032,9 +8379,10 @@
       <c r="Q237" s="1"/>
       <c r="R237" s="1"/>
       <c r="S237" s="1"/>
-      <c r="T237" s="3"/>
-    </row>
-    <row r="238" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T237" s="1"/>
+      <c r="U237" s="3"/>
+    </row>
+    <row r="238" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A238" s="4"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -8052,9 +8400,10 @@
       <c r="Q238" s="1"/>
       <c r="R238" s="1"/>
       <c r="S238" s="1"/>
-      <c r="T238" s="3"/>
-    </row>
-    <row r="239" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T238" s="1"/>
+      <c r="U238" s="3"/>
+    </row>
+    <row r="239" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A239" s="4"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
@@ -8072,9 +8421,10 @@
       <c r="Q239" s="1"/>
       <c r="R239" s="1"/>
       <c r="S239" s="1"/>
-      <c r="T239" s="3"/>
-    </row>
-    <row r="240" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T239" s="1"/>
+      <c r="U239" s="3"/>
+    </row>
+    <row r="240" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A240" s="4"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
@@ -8092,9 +8442,10 @@
       <c r="Q240" s="1"/>
       <c r="R240" s="1"/>
       <c r="S240" s="1"/>
-      <c r="T240" s="3"/>
-    </row>
-    <row r="241" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T240" s="1"/>
+      <c r="U240" s="3"/>
+    </row>
+    <row r="241" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A241" s="4"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -8112,9 +8463,10 @@
       <c r="Q241" s="1"/>
       <c r="R241" s="1"/>
       <c r="S241" s="1"/>
-      <c r="T241" s="3"/>
-    </row>
-    <row r="242" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T241" s="1"/>
+      <c r="U241" s="3"/>
+    </row>
+    <row r="242" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A242" s="4"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -8132,9 +8484,10 @@
       <c r="Q242" s="1"/>
       <c r="R242" s="1"/>
       <c r="S242" s="1"/>
-      <c r="T242" s="3"/>
-    </row>
-    <row r="243" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T242" s="1"/>
+      <c r="U242" s="3"/>
+    </row>
+    <row r="243" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A243" s="4"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -8152,9 +8505,10 @@
       <c r="Q243" s="1"/>
       <c r="R243" s="1"/>
       <c r="S243" s="1"/>
-      <c r="T243" s="3"/>
-    </row>
-    <row r="244" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T243" s="1"/>
+      <c r="U243" s="3"/>
+    </row>
+    <row r="244" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A244" s="4"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -8172,9 +8526,10 @@
       <c r="Q244" s="1"/>
       <c r="R244" s="1"/>
       <c r="S244" s="1"/>
-      <c r="T244" s="3"/>
-    </row>
-    <row r="245" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T244" s="1"/>
+      <c r="U244" s="3"/>
+    </row>
+    <row r="245" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A245" s="4"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -8192,9 +8547,10 @@
       <c r="Q245" s="1"/>
       <c r="R245" s="1"/>
       <c r="S245" s="1"/>
-      <c r="T245" s="3"/>
-    </row>
-    <row r="246" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T245" s="1"/>
+      <c r="U245" s="3"/>
+    </row>
+    <row r="246" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A246" s="4"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
@@ -8212,9 +8568,10 @@
       <c r="Q246" s="1"/>
       <c r="R246" s="1"/>
       <c r="S246" s="1"/>
-      <c r="T246" s="3"/>
-    </row>
-    <row r="247" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T246" s="1"/>
+      <c r="U246" s="3"/>
+    </row>
+    <row r="247" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A247" s="4"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
@@ -8232,9 +8589,10 @@
       <c r="Q247" s="1"/>
       <c r="R247" s="1"/>
       <c r="S247" s="1"/>
-      <c r="T247" s="3"/>
-    </row>
-    <row r="248" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T247" s="1"/>
+      <c r="U247" s="3"/>
+    </row>
+    <row r="248" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A248" s="4"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
@@ -8252,9 +8610,10 @@
       <c r="Q248" s="1"/>
       <c r="R248" s="1"/>
       <c r="S248" s="1"/>
-      <c r="T248" s="3"/>
-    </row>
-    <row r="249" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T248" s="1"/>
+      <c r="U248" s="3"/>
+    </row>
+    <row r="249" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A249" s="4"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
@@ -8272,9 +8631,10 @@
       <c r="Q249" s="1"/>
       <c r="R249" s="1"/>
       <c r="S249" s="1"/>
-      <c r="T249" s="3"/>
-    </row>
-    <row r="250" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T249" s="1"/>
+      <c r="U249" s="3"/>
+    </row>
+    <row r="250" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A250" s="4"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
@@ -8292,9 +8652,10 @@
       <c r="Q250" s="1"/>
       <c r="R250" s="1"/>
       <c r="S250" s="1"/>
-      <c r="T250" s="3"/>
-    </row>
-    <row r="251" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T250" s="1"/>
+      <c r="U250" s="3"/>
+    </row>
+    <row r="251" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A251" s="4"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
@@ -8312,9 +8673,10 @@
       <c r="Q251" s="1"/>
       <c r="R251" s="1"/>
       <c r="S251" s="1"/>
-      <c r="T251" s="3"/>
-    </row>
-    <row r="252" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T251" s="1"/>
+      <c r="U251" s="3"/>
+    </row>
+    <row r="252" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A252" s="4"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
@@ -8332,9 +8694,10 @@
       <c r="Q252" s="1"/>
       <c r="R252" s="1"/>
       <c r="S252" s="1"/>
-      <c r="T252" s="3"/>
-    </row>
-    <row r="253" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T252" s="1"/>
+      <c r="U252" s="3"/>
+    </row>
+    <row r="253" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A253" s="4"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
@@ -8352,9 +8715,10 @@
       <c r="Q253" s="1"/>
       <c r="R253" s="1"/>
       <c r="S253" s="1"/>
-      <c r="T253" s="3"/>
-    </row>
-    <row r="254" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T253" s="1"/>
+      <c r="U253" s="3"/>
+    </row>
+    <row r="254" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A254" s="4"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
@@ -8372,9 +8736,10 @@
       <c r="Q254" s="1"/>
       <c r="R254" s="1"/>
       <c r="S254" s="1"/>
-      <c r="T254" s="3"/>
-    </row>
-    <row r="255" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T254" s="1"/>
+      <c r="U254" s="3"/>
+    </row>
+    <row r="255" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A255" s="4"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
@@ -8392,9 +8757,10 @@
       <c r="Q255" s="1"/>
       <c r="R255" s="1"/>
       <c r="S255" s="1"/>
-      <c r="T255" s="3"/>
-    </row>
-    <row r="256" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T255" s="1"/>
+      <c r="U255" s="3"/>
+    </row>
+    <row r="256" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A256" s="4"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
@@ -8412,9 +8778,10 @@
       <c r="Q256" s="1"/>
       <c r="R256" s="1"/>
       <c r="S256" s="1"/>
-      <c r="T256" s="3"/>
-    </row>
-    <row r="257" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T256" s="1"/>
+      <c r="U256" s="3"/>
+    </row>
+    <row r="257" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A257" s="4"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
@@ -8432,9 +8799,10 @@
       <c r="Q257" s="1"/>
       <c r="R257" s="1"/>
       <c r="S257" s="1"/>
-      <c r="T257" s="3"/>
-    </row>
-    <row r="258" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T257" s="1"/>
+      <c r="U257" s="3"/>
+    </row>
+    <row r="258" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A258" s="4"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
@@ -8452,9 +8820,10 @@
       <c r="Q258" s="1"/>
       <c r="R258" s="1"/>
       <c r="S258" s="1"/>
-      <c r="T258" s="3"/>
-    </row>
-    <row r="259" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T258" s="1"/>
+      <c r="U258" s="3"/>
+    </row>
+    <row r="259" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A259" s="4"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
@@ -8472,9 +8841,10 @@
       <c r="Q259" s="1"/>
       <c r="R259" s="1"/>
       <c r="S259" s="1"/>
-      <c r="T259" s="3"/>
-    </row>
-    <row r="260" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T259" s="1"/>
+      <c r="U259" s="3"/>
+    </row>
+    <row r="260" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A260" s="4"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
@@ -8492,9 +8862,10 @@
       <c r="Q260" s="1"/>
       <c r="R260" s="1"/>
       <c r="S260" s="1"/>
-      <c r="T260" s="3"/>
-    </row>
-    <row r="261" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T260" s="1"/>
+      <c r="U260" s="3"/>
+    </row>
+    <row r="261" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A261" s="4"/>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
@@ -8512,9 +8883,10 @@
       <c r="Q261" s="1"/>
       <c r="R261" s="1"/>
       <c r="S261" s="1"/>
-      <c r="T261" s="3"/>
-    </row>
-    <row r="262" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T261" s="1"/>
+      <c r="U261" s="3"/>
+    </row>
+    <row r="262" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A262" s="4"/>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
@@ -8532,9 +8904,10 @@
       <c r="Q262" s="1"/>
       <c r="R262" s="1"/>
       <c r="S262" s="1"/>
-      <c r="T262" s="3"/>
-    </row>
-    <row r="263" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T262" s="1"/>
+      <c r="U262" s="3"/>
+    </row>
+    <row r="263" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A263" s="4"/>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
@@ -8552,9 +8925,10 @@
       <c r="Q263" s="1"/>
       <c r="R263" s="1"/>
       <c r="S263" s="1"/>
-      <c r="T263" s="3"/>
-    </row>
-    <row r="264" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T263" s="1"/>
+      <c r="U263" s="3"/>
+    </row>
+    <row r="264" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A264" s="4"/>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
@@ -8572,9 +8946,10 @@
       <c r="Q264" s="1"/>
       <c r="R264" s="1"/>
       <c r="S264" s="1"/>
-      <c r="T264" s="3"/>
-    </row>
-    <row r="265" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T264" s="1"/>
+      <c r="U264" s="3"/>
+    </row>
+    <row r="265" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A265" s="4"/>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
@@ -8592,9 +8967,10 @@
       <c r="Q265" s="1"/>
       <c r="R265" s="1"/>
       <c r="S265" s="1"/>
-      <c r="T265" s="3"/>
-    </row>
-    <row r="266" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T265" s="1"/>
+      <c r="U265" s="3"/>
+    </row>
+    <row r="266" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A266" s="4"/>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
@@ -8612,9 +8988,10 @@
       <c r="Q266" s="1"/>
       <c r="R266" s="1"/>
       <c r="S266" s="1"/>
-      <c r="T266" s="3"/>
-    </row>
-    <row r="267" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T266" s="1"/>
+      <c r="U266" s="3"/>
+    </row>
+    <row r="267" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A267" s="4"/>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
@@ -8632,9 +9009,10 @@
       <c r="Q267" s="1"/>
       <c r="R267" s="1"/>
       <c r="S267" s="1"/>
-      <c r="T267" s="3"/>
-    </row>
-    <row r="268" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T267" s="1"/>
+      <c r="U267" s="3"/>
+    </row>
+    <row r="268" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A268" s="4"/>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
@@ -8652,9 +9030,10 @@
       <c r="Q268" s="1"/>
       <c r="R268" s="1"/>
       <c r="S268" s="1"/>
-      <c r="T268" s="3"/>
-    </row>
-    <row r="269" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T268" s="1"/>
+      <c r="U268" s="3"/>
+    </row>
+    <row r="269" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A269" s="4"/>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
@@ -8672,9 +9051,10 @@
       <c r="Q269" s="1"/>
       <c r="R269" s="1"/>
       <c r="S269" s="1"/>
-      <c r="T269" s="3"/>
-    </row>
-    <row r="270" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T269" s="1"/>
+      <c r="U269" s="3"/>
+    </row>
+    <row r="270" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A270" s="4"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
@@ -8692,9 +9072,10 @@
       <c r="Q270" s="1"/>
       <c r="R270" s="1"/>
       <c r="S270" s="1"/>
-      <c r="T270" s="3"/>
-    </row>
-    <row r="271" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T270" s="1"/>
+      <c r="U270" s="3"/>
+    </row>
+    <row r="271" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A271" s="4"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
@@ -8712,9 +9093,10 @@
       <c r="Q271" s="1"/>
       <c r="R271" s="1"/>
       <c r="S271" s="1"/>
-      <c r="T271" s="3"/>
-    </row>
-    <row r="272" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T271" s="1"/>
+      <c r="U271" s="3"/>
+    </row>
+    <row r="272" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A272" s="4"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
@@ -8732,9 +9114,10 @@
       <c r="Q272" s="1"/>
       <c r="R272" s="1"/>
       <c r="S272" s="1"/>
-      <c r="T272" s="3"/>
-    </row>
-    <row r="273" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T272" s="1"/>
+      <c r="U272" s="3"/>
+    </row>
+    <row r="273" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A273" s="4"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
@@ -8752,9 +9135,10 @@
       <c r="Q273" s="1"/>
       <c r="R273" s="1"/>
       <c r="S273" s="1"/>
-      <c r="T273" s="3"/>
-    </row>
-    <row r="274" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T273" s="1"/>
+      <c r="U273" s="3"/>
+    </row>
+    <row r="274" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A274" s="4"/>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
@@ -8772,9 +9156,10 @@
       <c r="Q274" s="1"/>
       <c r="R274" s="1"/>
       <c r="S274" s="1"/>
-      <c r="T274" s="3"/>
-    </row>
-    <row r="275" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T274" s="1"/>
+      <c r="U274" s="3"/>
+    </row>
+    <row r="275" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A275" s="4"/>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
@@ -8792,9 +9177,10 @@
       <c r="Q275" s="1"/>
       <c r="R275" s="1"/>
       <c r="S275" s="1"/>
-      <c r="T275" s="3"/>
-    </row>
-    <row r="276" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T275" s="1"/>
+      <c r="U275" s="3"/>
+    </row>
+    <row r="276" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A276" s="4"/>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
@@ -8812,9 +9198,10 @@
       <c r="Q276" s="1"/>
       <c r="R276" s="1"/>
       <c r="S276" s="1"/>
-      <c r="T276" s="3"/>
-    </row>
-    <row r="277" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T276" s="1"/>
+      <c r="U276" s="3"/>
+    </row>
+    <row r="277" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A277" s="4"/>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
@@ -8832,9 +9219,10 @@
       <c r="Q277" s="1"/>
       <c r="R277" s="1"/>
       <c r="S277" s="1"/>
-      <c r="T277" s="3"/>
-    </row>
-    <row r="278" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T277" s="1"/>
+      <c r="U277" s="3"/>
+    </row>
+    <row r="278" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A278" s="4"/>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
@@ -8852,9 +9240,10 @@
       <c r="Q278" s="1"/>
       <c r="R278" s="1"/>
       <c r="S278" s="1"/>
-      <c r="T278" s="3"/>
-    </row>
-    <row r="279" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T278" s="1"/>
+      <c r="U278" s="3"/>
+    </row>
+    <row r="279" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A279" s="4"/>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
@@ -8872,9 +9261,10 @@
       <c r="Q279" s="1"/>
       <c r="R279" s="1"/>
       <c r="S279" s="1"/>
-      <c r="T279" s="3"/>
-    </row>
-    <row r="280" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T279" s="1"/>
+      <c r="U279" s="3"/>
+    </row>
+    <row r="280" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A280" s="4"/>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
@@ -8892,9 +9282,10 @@
       <c r="Q280" s="1"/>
       <c r="R280" s="1"/>
       <c r="S280" s="1"/>
-      <c r="T280" s="3"/>
-    </row>
-    <row r="281" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T280" s="1"/>
+      <c r="U280" s="3"/>
+    </row>
+    <row r="281" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A281" s="4"/>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
@@ -8912,9 +9303,10 @@
       <c r="Q281" s="1"/>
       <c r="R281" s="1"/>
       <c r="S281" s="1"/>
-      <c r="T281" s="3"/>
-    </row>
-    <row r="282" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T281" s="1"/>
+      <c r="U281" s="3"/>
+    </row>
+    <row r="282" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A282" s="4"/>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
@@ -8932,9 +9324,10 @@
       <c r="Q282" s="1"/>
       <c r="R282" s="1"/>
       <c r="S282" s="1"/>
-      <c r="T282" s="3"/>
-    </row>
-    <row r="283" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T282" s="1"/>
+      <c r="U282" s="3"/>
+    </row>
+    <row r="283" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A283" s="4"/>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
@@ -8952,9 +9345,10 @@
       <c r="Q283" s="1"/>
       <c r="R283" s="1"/>
       <c r="S283" s="1"/>
-      <c r="T283" s="3"/>
-    </row>
-    <row r="284" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T283" s="1"/>
+      <c r="U283" s="3"/>
+    </row>
+    <row r="284" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A284" s="4"/>
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
@@ -8972,9 +9366,10 @@
       <c r="Q284" s="1"/>
       <c r="R284" s="1"/>
       <c r="S284" s="1"/>
-      <c r="T284" s="3"/>
-    </row>
-    <row r="285" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T284" s="1"/>
+      <c r="U284" s="3"/>
+    </row>
+    <row r="285" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A285" s="4"/>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
@@ -8992,9 +9387,10 @@
       <c r="Q285" s="1"/>
       <c r="R285" s="1"/>
       <c r="S285" s="1"/>
-      <c r="T285" s="3"/>
-    </row>
-    <row r="286" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T285" s="1"/>
+      <c r="U285" s="3"/>
+    </row>
+    <row r="286" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A286" s="4"/>
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
@@ -9012,9 +9408,10 @@
       <c r="Q286" s="1"/>
       <c r="R286" s="1"/>
       <c r="S286" s="1"/>
-      <c r="T286" s="3"/>
-    </row>
-    <row r="287" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T286" s="1"/>
+      <c r="U286" s="3"/>
+    </row>
+    <row r="287" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A287" s="4"/>
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
@@ -9032,9 +9429,10 @@
       <c r="Q287" s="1"/>
       <c r="R287" s="1"/>
       <c r="S287" s="1"/>
-      <c r="T287" s="3"/>
-    </row>
-    <row r="288" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T287" s="1"/>
+      <c r="U287" s="3"/>
+    </row>
+    <row r="288" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A288" s="4"/>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
@@ -9052,9 +9450,10 @@
       <c r="Q288" s="1"/>
       <c r="R288" s="1"/>
       <c r="S288" s="1"/>
-      <c r="T288" s="3"/>
-    </row>
-    <row r="289" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T288" s="1"/>
+      <c r="U288" s="3"/>
+    </row>
+    <row r="289" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A289" s="4"/>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
@@ -9072,9 +9471,10 @@
       <c r="Q289" s="1"/>
       <c r="R289" s="1"/>
       <c r="S289" s="1"/>
-      <c r="T289" s="3"/>
-    </row>
-    <row r="290" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T289" s="1"/>
+      <c r="U289" s="3"/>
+    </row>
+    <row r="290" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A290" s="4"/>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
@@ -9092,9 +9492,10 @@
       <c r="Q290" s="1"/>
       <c r="R290" s="1"/>
       <c r="S290" s="1"/>
-      <c r="T290" s="3"/>
-    </row>
-    <row r="291" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T290" s="1"/>
+      <c r="U290" s="3"/>
+    </row>
+    <row r="291" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A291" s="4"/>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
@@ -9112,9 +9513,10 @@
       <c r="Q291" s="1"/>
       <c r="R291" s="1"/>
       <c r="S291" s="1"/>
-      <c r="T291" s="3"/>
-    </row>
-    <row r="292" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T291" s="1"/>
+      <c r="U291" s="3"/>
+    </row>
+    <row r="292" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A292" s="4"/>
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
@@ -9132,9 +9534,10 @@
       <c r="Q292" s="1"/>
       <c r="R292" s="1"/>
       <c r="S292" s="1"/>
-      <c r="T292" s="3"/>
-    </row>
-    <row r="293" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T292" s="1"/>
+      <c r="U292" s="3"/>
+    </row>
+    <row r="293" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A293" s="4"/>
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
@@ -9152,9 +9555,10 @@
       <c r="Q293" s="1"/>
       <c r="R293" s="1"/>
       <c r="S293" s="1"/>
-      <c r="T293" s="3"/>
-    </row>
-    <row r="294" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T293" s="1"/>
+      <c r="U293" s="3"/>
+    </row>
+    <row r="294" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A294" s="4"/>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
@@ -9172,9 +9576,10 @@
       <c r="Q294" s="1"/>
       <c r="R294" s="1"/>
       <c r="S294" s="1"/>
-      <c r="T294" s="3"/>
-    </row>
-    <row r="295" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T294" s="1"/>
+      <c r="U294" s="3"/>
+    </row>
+    <row r="295" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A295" s="4"/>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
@@ -9192,9 +9597,10 @@
       <c r="Q295" s="1"/>
       <c r="R295" s="1"/>
       <c r="S295" s="1"/>
-      <c r="T295" s="3"/>
-    </row>
-    <row r="296" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T295" s="1"/>
+      <c r="U295" s="3"/>
+    </row>
+    <row r="296" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A296" s="4"/>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
@@ -9212,9 +9618,10 @@
       <c r="Q296" s="1"/>
       <c r="R296" s="1"/>
       <c r="S296" s="1"/>
-      <c r="T296" s="3"/>
-    </row>
-    <row r="297" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T296" s="1"/>
+      <c r="U296" s="3"/>
+    </row>
+    <row r="297" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A297" s="4"/>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
@@ -9232,9 +9639,10 @@
       <c r="Q297" s="1"/>
       <c r="R297" s="1"/>
       <c r="S297" s="1"/>
-      <c r="T297" s="3"/>
-    </row>
-    <row r="298" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T297" s="1"/>
+      <c r="U297" s="3"/>
+    </row>
+    <row r="298" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A298" s="4"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
@@ -9252,9 +9660,10 @@
       <c r="Q298" s="1"/>
       <c r="R298" s="1"/>
       <c r="S298" s="1"/>
-      <c r="T298" s="3"/>
-    </row>
-    <row r="299" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T298" s="1"/>
+      <c r="U298" s="3"/>
+    </row>
+    <row r="299" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A299" s="4"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
@@ -9272,9 +9681,10 @@
       <c r="Q299" s="1"/>
       <c r="R299" s="1"/>
       <c r="S299" s="1"/>
-      <c r="T299" s="3"/>
-    </row>
-    <row r="300" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T299" s="1"/>
+      <c r="U299" s="3"/>
+    </row>
+    <row r="300" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A300" s="4"/>
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
@@ -9292,9 +9702,10 @@
       <c r="Q300" s="1"/>
       <c r="R300" s="1"/>
       <c r="S300" s="1"/>
-      <c r="T300" s="3"/>
-    </row>
-    <row r="301" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T300" s="1"/>
+      <c r="U300" s="3"/>
+    </row>
+    <row r="301" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A301" s="4"/>
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
@@ -9312,9 +9723,10 @@
       <c r="Q301" s="1"/>
       <c r="R301" s="1"/>
       <c r="S301" s="1"/>
-      <c r="T301" s="3"/>
-    </row>
-    <row r="302" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T301" s="1"/>
+      <c r="U301" s="3"/>
+    </row>
+    <row r="302" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A302" s="4"/>
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
@@ -9332,9 +9744,10 @@
       <c r="Q302" s="1"/>
       <c r="R302" s="1"/>
       <c r="S302" s="1"/>
-      <c r="T302" s="3"/>
-    </row>
-    <row r="303" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T302" s="1"/>
+      <c r="U302" s="3"/>
+    </row>
+    <row r="303" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A303" s="4"/>
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
@@ -9352,9 +9765,10 @@
       <c r="Q303" s="1"/>
       <c r="R303" s="1"/>
       <c r="S303" s="1"/>
-      <c r="T303" s="3"/>
-    </row>
-    <row r="304" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T303" s="1"/>
+      <c r="U303" s="3"/>
+    </row>
+    <row r="304" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A304" s="4"/>
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
@@ -9372,9 +9786,10 @@
       <c r="Q304" s="1"/>
       <c r="R304" s="1"/>
       <c r="S304" s="1"/>
-      <c r="T304" s="3"/>
-    </row>
-    <row r="305" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T304" s="1"/>
+      <c r="U304" s="3"/>
+    </row>
+    <row r="305" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A305" s="4"/>
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
@@ -9392,9 +9807,10 @@
       <c r="Q305" s="1"/>
       <c r="R305" s="1"/>
       <c r="S305" s="1"/>
-      <c r="T305" s="3"/>
-    </row>
-    <row r="306" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T305" s="1"/>
+      <c r="U305" s="3"/>
+    </row>
+    <row r="306" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A306" s="4"/>
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
@@ -9412,9 +9828,10 @@
       <c r="Q306" s="1"/>
       <c r="R306" s="1"/>
       <c r="S306" s="1"/>
-      <c r="T306" s="3"/>
-    </row>
-    <row r="307" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T306" s="1"/>
+      <c r="U306" s="3"/>
+    </row>
+    <row r="307" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A307" s="4"/>
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
@@ -9432,9 +9849,10 @@
       <c r="Q307" s="1"/>
       <c r="R307" s="1"/>
       <c r="S307" s="1"/>
-      <c r="T307" s="3"/>
-    </row>
-    <row r="308" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T307" s="1"/>
+      <c r="U307" s="3"/>
+    </row>
+    <row r="308" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A308" s="4"/>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
@@ -9452,9 +9870,10 @@
       <c r="Q308" s="1"/>
       <c r="R308" s="1"/>
       <c r="S308" s="1"/>
-      <c r="T308" s="3"/>
-    </row>
-    <row r="309" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T308" s="1"/>
+      <c r="U308" s="3"/>
+    </row>
+    <row r="309" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A309" s="4"/>
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
@@ -9472,9 +9891,10 @@
       <c r="Q309" s="1"/>
       <c r="R309" s="1"/>
       <c r="S309" s="1"/>
-      <c r="T309" s="3"/>
-    </row>
-    <row r="310" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T309" s="1"/>
+      <c r="U309" s="3"/>
+    </row>
+    <row r="310" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A310" s="4"/>
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
@@ -9492,9 +9912,10 @@
       <c r="Q310" s="1"/>
       <c r="R310" s="1"/>
       <c r="S310" s="1"/>
-      <c r="T310" s="3"/>
-    </row>
-    <row r="311" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T310" s="1"/>
+      <c r="U310" s="3"/>
+    </row>
+    <row r="311" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A311" s="4"/>
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
@@ -9512,9 +9933,10 @@
       <c r="Q311" s="1"/>
       <c r="R311" s="1"/>
       <c r="S311" s="1"/>
-      <c r="T311" s="3"/>
-    </row>
-    <row r="312" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T311" s="1"/>
+      <c r="U311" s="3"/>
+    </row>
+    <row r="312" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A312" s="4"/>
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
@@ -9532,9 +9954,10 @@
       <c r="Q312" s="1"/>
       <c r="R312" s="1"/>
       <c r="S312" s="1"/>
-      <c r="T312" s="3"/>
-    </row>
-    <row r="313" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T312" s="1"/>
+      <c r="U312" s="3"/>
+    </row>
+    <row r="313" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A313" s="4"/>
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
@@ -9552,9 +9975,10 @@
       <c r="Q313" s="1"/>
       <c r="R313" s="1"/>
       <c r="S313" s="1"/>
-      <c r="T313" s="3"/>
-    </row>
-    <row r="314" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T313" s="1"/>
+      <c r="U313" s="3"/>
+    </row>
+    <row r="314" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A314" s="4"/>
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
@@ -9572,9 +9996,10 @@
       <c r="Q314" s="1"/>
       <c r="R314" s="1"/>
       <c r="S314" s="1"/>
-      <c r="T314" s="3"/>
-    </row>
-    <row r="315" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T314" s="1"/>
+      <c r="U314" s="3"/>
+    </row>
+    <row r="315" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A315" s="4"/>
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
@@ -9592,9 +10017,10 @@
       <c r="Q315" s="1"/>
       <c r="R315" s="1"/>
       <c r="S315" s="1"/>
-      <c r="T315" s="3"/>
-    </row>
-    <row r="316" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T315" s="1"/>
+      <c r="U315" s="3"/>
+    </row>
+    <row r="316" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A316" s="4"/>
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
@@ -9612,9 +10038,10 @@
       <c r="Q316" s="1"/>
       <c r="R316" s="1"/>
       <c r="S316" s="1"/>
-      <c r="T316" s="3"/>
-    </row>
-    <row r="317" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T316" s="1"/>
+      <c r="U316" s="3"/>
+    </row>
+    <row r="317" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A317" s="4"/>
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
@@ -9632,9 +10059,10 @@
       <c r="Q317" s="1"/>
       <c r="R317" s="1"/>
       <c r="S317" s="1"/>
-      <c r="T317" s="3"/>
-    </row>
-    <row r="318" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T317" s="1"/>
+      <c r="U317" s="3"/>
+    </row>
+    <row r="318" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A318" s="4"/>
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
@@ -9652,9 +10080,10 @@
       <c r="Q318" s="1"/>
       <c r="R318" s="1"/>
       <c r="S318" s="1"/>
-      <c r="T318" s="3"/>
-    </row>
-    <row r="319" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T318" s="1"/>
+      <c r="U318" s="3"/>
+    </row>
+    <row r="319" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A319" s="4"/>
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
@@ -9672,9 +10101,10 @@
       <c r="Q319" s="1"/>
       <c r="R319" s="1"/>
       <c r="S319" s="1"/>
-      <c r="T319" s="3"/>
-    </row>
-    <row r="320" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T319" s="1"/>
+      <c r="U319" s="3"/>
+    </row>
+    <row r="320" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A320" s="4"/>
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
@@ -9692,9 +10122,10 @@
       <c r="Q320" s="1"/>
       <c r="R320" s="1"/>
       <c r="S320" s="1"/>
-      <c r="T320" s="3"/>
-    </row>
-    <row r="321" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T320" s="1"/>
+      <c r="U320" s="3"/>
+    </row>
+    <row r="321" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A321" s="4"/>
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
@@ -9712,9 +10143,10 @@
       <c r="Q321" s="1"/>
       <c r="R321" s="1"/>
       <c r="S321" s="1"/>
-      <c r="T321" s="3"/>
-    </row>
-    <row r="322" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T321" s="1"/>
+      <c r="U321" s="3"/>
+    </row>
+    <row r="322" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A322" s="4"/>
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
@@ -9732,9 +10164,10 @@
       <c r="Q322" s="1"/>
       <c r="R322" s="1"/>
       <c r="S322" s="1"/>
-      <c r="T322" s="3"/>
-    </row>
-    <row r="323" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T322" s="1"/>
+      <c r="U322" s="3"/>
+    </row>
+    <row r="323" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A323" s="4"/>
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
@@ -9752,9 +10185,10 @@
       <c r="Q323" s="1"/>
       <c r="R323" s="1"/>
       <c r="S323" s="1"/>
-      <c r="T323" s="3"/>
-    </row>
-    <row r="324" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T323" s="1"/>
+      <c r="U323" s="3"/>
+    </row>
+    <row r="324" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A324" s="4"/>
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
@@ -9772,9 +10206,10 @@
       <c r="Q324" s="1"/>
       <c r="R324" s="1"/>
       <c r="S324" s="1"/>
-      <c r="T324" s="3"/>
-    </row>
-    <row r="325" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T324" s="1"/>
+      <c r="U324" s="3"/>
+    </row>
+    <row r="325" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A325" s="4"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
@@ -9792,9 +10227,10 @@
       <c r="Q325" s="1"/>
       <c r="R325" s="1"/>
       <c r="S325" s="1"/>
-      <c r="T325" s="3"/>
-    </row>
-    <row r="326" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T325" s="1"/>
+      <c r="U325" s="3"/>
+    </row>
+    <row r="326" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A326" s="4"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
@@ -9812,9 +10248,10 @@
       <c r="Q326" s="1"/>
       <c r="R326" s="1"/>
       <c r="S326" s="1"/>
-      <c r="T326" s="3"/>
-    </row>
-    <row r="327" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T326" s="1"/>
+      <c r="U326" s="3"/>
+    </row>
+    <row r="327" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A327" s="4"/>
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
@@ -9832,9 +10269,10 @@
       <c r="Q327" s="1"/>
       <c r="R327" s="1"/>
       <c r="S327" s="1"/>
-      <c r="T327" s="3"/>
-    </row>
-    <row r="328" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T327" s="1"/>
+      <c r="U327" s="3"/>
+    </row>
+    <row r="328" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A328" s="4"/>
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
@@ -9852,9 +10290,10 @@
       <c r="Q328" s="1"/>
       <c r="R328" s="1"/>
       <c r="S328" s="1"/>
-      <c r="T328" s="3"/>
-    </row>
-    <row r="329" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T328" s="1"/>
+      <c r="U328" s="3"/>
+    </row>
+    <row r="329" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A329" s="4"/>
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
@@ -9872,9 +10311,10 @@
       <c r="Q329" s="1"/>
       <c r="R329" s="1"/>
       <c r="S329" s="1"/>
-      <c r="T329" s="3"/>
-    </row>
-    <row r="330" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T329" s="1"/>
+      <c r="U329" s="3"/>
+    </row>
+    <row r="330" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A330" s="4"/>
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
@@ -9892,9 +10332,10 @@
       <c r="Q330" s="1"/>
       <c r="R330" s="1"/>
       <c r="S330" s="1"/>
-      <c r="T330" s="3"/>
-    </row>
-    <row r="331" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T330" s="1"/>
+      <c r="U330" s="3"/>
+    </row>
+    <row r="331" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A331" s="4"/>
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
@@ -9912,9 +10353,10 @@
       <c r="Q331" s="1"/>
       <c r="R331" s="1"/>
       <c r="S331" s="1"/>
-      <c r="T331" s="3"/>
-    </row>
-    <row r="332" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T331" s="1"/>
+      <c r="U331" s="3"/>
+    </row>
+    <row r="332" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A332" s="4"/>
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
@@ -9932,9 +10374,10 @@
       <c r="Q332" s="1"/>
       <c r="R332" s="1"/>
       <c r="S332" s="1"/>
-      <c r="T332" s="3"/>
-    </row>
-    <row r="333" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T332" s="1"/>
+      <c r="U332" s="3"/>
+    </row>
+    <row r="333" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A333" s="4"/>
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
@@ -9952,9 +10395,10 @@
       <c r="Q333" s="1"/>
       <c r="R333" s="1"/>
       <c r="S333" s="1"/>
-      <c r="T333" s="3"/>
-    </row>
-    <row r="334" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T333" s="1"/>
+      <c r="U333" s="3"/>
+    </row>
+    <row r="334" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A334" s="4"/>
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
@@ -9972,9 +10416,10 @@
       <c r="Q334" s="1"/>
       <c r="R334" s="1"/>
       <c r="S334" s="1"/>
-      <c r="T334" s="3"/>
-    </row>
-    <row r="335" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T334" s="1"/>
+      <c r="U334" s="3"/>
+    </row>
+    <row r="335" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A335" s="4"/>
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
@@ -9992,9 +10437,10 @@
       <c r="Q335" s="1"/>
       <c r="R335" s="1"/>
       <c r="S335" s="1"/>
-      <c r="T335" s="3"/>
-    </row>
-    <row r="336" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T335" s="1"/>
+      <c r="U335" s="3"/>
+    </row>
+    <row r="336" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A336" s="4"/>
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
@@ -10012,9 +10458,10 @@
       <c r="Q336" s="1"/>
       <c r="R336" s="1"/>
       <c r="S336" s="1"/>
-      <c r="T336" s="3"/>
-    </row>
-    <row r="337" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T336" s="1"/>
+      <c r="U336" s="3"/>
+    </row>
+    <row r="337" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A337" s="4"/>
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
@@ -10032,9 +10479,10 @@
       <c r="Q337" s="1"/>
       <c r="R337" s="1"/>
       <c r="S337" s="1"/>
-      <c r="T337" s="3"/>
-    </row>
-    <row r="338" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T337" s="1"/>
+      <c r="U337" s="3"/>
+    </row>
+    <row r="338" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A338" s="4"/>
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
@@ -10052,9 +10500,10 @@
       <c r="Q338" s="1"/>
       <c r="R338" s="1"/>
       <c r="S338" s="1"/>
-      <c r="T338" s="3"/>
-    </row>
-    <row r="339" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T338" s="1"/>
+      <c r="U338" s="3"/>
+    </row>
+    <row r="339" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A339" s="4"/>
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
@@ -10072,9 +10521,10 @@
       <c r="Q339" s="1"/>
       <c r="R339" s="1"/>
       <c r="S339" s="1"/>
-      <c r="T339" s="3"/>
-    </row>
-    <row r="340" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T339" s="1"/>
+      <c r="U339" s="3"/>
+    </row>
+    <row r="340" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A340" s="4"/>
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
@@ -10092,9 +10542,10 @@
       <c r="Q340" s="1"/>
       <c r="R340" s="1"/>
       <c r="S340" s="1"/>
-      <c r="T340" s="3"/>
-    </row>
-    <row r="341" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T340" s="1"/>
+      <c r="U340" s="3"/>
+    </row>
+    <row r="341" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A341" s="4"/>
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
@@ -10112,9 +10563,10 @@
       <c r="Q341" s="1"/>
       <c r="R341" s="1"/>
       <c r="S341" s="1"/>
-      <c r="T341" s="3"/>
-    </row>
-    <row r="342" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T341" s="1"/>
+      <c r="U341" s="3"/>
+    </row>
+    <row r="342" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A342" s="4"/>
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
@@ -10132,9 +10584,10 @@
       <c r="Q342" s="1"/>
       <c r="R342" s="1"/>
       <c r="S342" s="1"/>
-      <c r="T342" s="3"/>
-    </row>
-    <row r="343" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T342" s="1"/>
+      <c r="U342" s="3"/>
+    </row>
+    <row r="343" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A343" s="4"/>
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
@@ -10152,9 +10605,10 @@
       <c r="Q343" s="1"/>
       <c r="R343" s="1"/>
       <c r="S343" s="1"/>
-      <c r="T343" s="3"/>
-    </row>
-    <row r="344" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T343" s="1"/>
+      <c r="U343" s="3"/>
+    </row>
+    <row r="344" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A344" s="4"/>
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
@@ -10172,9 +10626,10 @@
       <c r="Q344" s="1"/>
       <c r="R344" s="1"/>
       <c r="S344" s="1"/>
-      <c r="T344" s="3"/>
-    </row>
-    <row r="345" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T344" s="1"/>
+      <c r="U344" s="3"/>
+    </row>
+    <row r="345" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A345" s="4"/>
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
@@ -10192,9 +10647,10 @@
       <c r="Q345" s="1"/>
       <c r="R345" s="1"/>
       <c r="S345" s="1"/>
-      <c r="T345" s="3"/>
-    </row>
-    <row r="346" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T345" s="1"/>
+      <c r="U345" s="3"/>
+    </row>
+    <row r="346" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A346" s="4"/>
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
@@ -10212,9 +10668,10 @@
       <c r="Q346" s="1"/>
       <c r="R346" s="1"/>
       <c r="S346" s="1"/>
-      <c r="T346" s="3"/>
-    </row>
-    <row r="347" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T346" s="1"/>
+      <c r="U346" s="3"/>
+    </row>
+    <row r="347" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A347" s="4"/>
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
@@ -10232,9 +10689,10 @@
       <c r="Q347" s="1"/>
       <c r="R347" s="1"/>
       <c r="S347" s="1"/>
-      <c r="T347" s="3"/>
-    </row>
-    <row r="348" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T347" s="1"/>
+      <c r="U347" s="3"/>
+    </row>
+    <row r="348" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A348" s="4"/>
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
@@ -10252,9 +10710,10 @@
       <c r="Q348" s="1"/>
       <c r="R348" s="1"/>
       <c r="S348" s="1"/>
-      <c r="T348" s="3"/>
-    </row>
-    <row r="349" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T348" s="1"/>
+      <c r="U348" s="3"/>
+    </row>
+    <row r="349" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A349" s="4"/>
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
@@ -10272,9 +10731,10 @@
       <c r="Q349" s="1"/>
       <c r="R349" s="1"/>
       <c r="S349" s="1"/>
-      <c r="T349" s="3"/>
-    </row>
-    <row r="350" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T349" s="1"/>
+      <c r="U349" s="3"/>
+    </row>
+    <row r="350" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A350" s="4"/>
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
@@ -10292,9 +10752,10 @@
       <c r="Q350" s="1"/>
       <c r="R350" s="1"/>
       <c r="S350" s="1"/>
-      <c r="T350" s="3"/>
-    </row>
-    <row r="351" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T350" s="1"/>
+      <c r="U350" s="3"/>
+    </row>
+    <row r="351" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A351" s="4"/>
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
@@ -10312,9 +10773,10 @@
       <c r="Q351" s="1"/>
       <c r="R351" s="1"/>
       <c r="S351" s="1"/>
-      <c r="T351" s="3"/>
-    </row>
-    <row r="352" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T351" s="1"/>
+      <c r="U351" s="3"/>
+    </row>
+    <row r="352" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A352" s="4"/>
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
@@ -10332,9 +10794,10 @@
       <c r="Q352" s="1"/>
       <c r="R352" s="1"/>
       <c r="S352" s="1"/>
-      <c r="T352" s="3"/>
-    </row>
-    <row r="353" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="T352" s="1"/>
+      <c r="U352" s="3"/>
+    </row>
+    <row r="353" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A353" s="4"/>
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
@@ -10352,9 +10815,10 @@
       <c r="Q353" s="1"/>
       <c r="R353" s="1"/>
       <c r="S353" s="1"/>
-      <c r="T353" s="3"/>
-    </row>
-    <row r="354" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="T353" s="1"/>
+      <c r="U353" s="3"/>
+    </row>
+    <row r="354" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A354" s="4"/>
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
@@ -10372,10 +10836,11 @@
       <c r="Q354" s="1"/>
       <c r="R354" s="1"/>
       <c r="S354" s="1"/>
-      <c r="T354" s="3"/>
-      <c r="X354" s="5"/>
-    </row>
-    <row r="355" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="T354" s="1"/>
+      <c r="U354" s="3"/>
+      <c r="Y354" s="5"/>
+    </row>
+    <row r="355" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A355" s="4"/>
       <c r="B355" s="1"/>
       <c r="C355" s="1"/>
@@ -10393,10 +10858,11 @@
       <c r="Q355" s="1"/>
       <c r="R355" s="1"/>
       <c r="S355" s="1"/>
-      <c r="T355" s="3"/>
-      <c r="X355" s="5"/>
-    </row>
-    <row r="356" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="T355" s="1"/>
+      <c r="U355" s="3"/>
+      <c r="Y355" s="5"/>
+    </row>
+    <row r="356" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A356" s="4"/>
       <c r="B356" s="1"/>
       <c r="C356" s="1"/>
@@ -10414,10 +10880,11 @@
       <c r="Q356" s="1"/>
       <c r="R356" s="1"/>
       <c r="S356" s="1"/>
-      <c r="T356" s="3"/>
-      <c r="X356" s="5"/>
-    </row>
-    <row r="357" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="T356" s="1"/>
+      <c r="U356" s="3"/>
+      <c r="Y356" s="5"/>
+    </row>
+    <row r="357" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A357" s="4"/>
       <c r="B357" s="1"/>
       <c r="C357" s="1"/>
@@ -10435,10 +10902,11 @@
       <c r="Q357" s="1"/>
       <c r="R357" s="1"/>
       <c r="S357" s="1"/>
-      <c r="T357" s="3"/>
-      <c r="X357" s="5"/>
-    </row>
-    <row r="358" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="T357" s="1"/>
+      <c r="U357" s="3"/>
+      <c r="Y357" s="5"/>
+    </row>
+    <row r="358" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A358" s="4"/>
       <c r="B358" s="1"/>
       <c r="C358" s="1"/>
@@ -10456,10 +10924,11 @@
       <c r="Q358" s="1"/>
       <c r="R358" s="1"/>
       <c r="S358" s="1"/>
-      <c r="T358" s="3"/>
-      <c r="X358" s="5"/>
-    </row>
-    <row r="359" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="T358" s="1"/>
+      <c r="U358" s="3"/>
+      <c r="Y358" s="5"/>
+    </row>
+    <row r="359" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A359" s="4"/>
       <c r="B359" s="1"/>
       <c r="C359" s="1"/>
@@ -10477,10 +10946,11 @@
       <c r="Q359" s="1"/>
       <c r="R359" s="1"/>
       <c r="S359" s="1"/>
-      <c r="T359" s="3"/>
-      <c r="X359" s="5"/>
-    </row>
-    <row r="360" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="T359" s="1"/>
+      <c r="U359" s="3"/>
+      <c r="Y359" s="5"/>
+    </row>
+    <row r="360" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A360" s="4"/>
       <c r="B360" s="1"/>
       <c r="C360" s="1"/>
@@ -10498,10 +10968,11 @@
       <c r="Q360" s="1"/>
       <c r="R360" s="1"/>
       <c r="S360" s="1"/>
-      <c r="T360" s="3"/>
-      <c r="X360" s="5"/>
-    </row>
-    <row r="361" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="T360" s="1"/>
+      <c r="U360" s="3"/>
+      <c r="Y360" s="5"/>
+    </row>
+    <row r="361" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A361" s="4"/>
       <c r="B361" s="1"/>
       <c r="C361" s="1"/>
@@ -10519,10 +10990,11 @@
       <c r="Q361" s="1"/>
       <c r="R361" s="1"/>
       <c r="S361" s="1"/>
-      <c r="T361" s="3"/>
-      <c r="X361" s="5"/>
-    </row>
-    <row r="362" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="T361" s="1"/>
+      <c r="U361" s="3"/>
+      <c r="Y361" s="5"/>
+    </row>
+    <row r="362" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A362" s="4"/>
       <c r="B362" s="1"/>
       <c r="C362" s="1"/>
@@ -10540,10 +11012,11 @@
       <c r="Q362" s="1"/>
       <c r="R362" s="1"/>
       <c r="S362" s="1"/>
-      <c r="T362" s="3"/>
-      <c r="X362" s="5"/>
-    </row>
-    <row r="363" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="T362" s="1"/>
+      <c r="U362" s="3"/>
+      <c r="Y362" s="5"/>
+    </row>
+    <row r="363" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A363" s="4"/>
       <c r="B363" s="1"/>
       <c r="C363" s="1"/>
@@ -10561,9 +11034,10 @@
       <c r="Q363" s="1"/>
       <c r="R363" s="1"/>
       <c r="S363" s="1"/>
-      <c r="T363" s="3"/>
-    </row>
-    <row r="364" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="T363" s="1"/>
+      <c r="U363" s="3"/>
+    </row>
+    <row r="364" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A364" s="4"/>
       <c r="B364" s="1"/>
       <c r="C364" s="1"/>
@@ -10581,9 +11055,10 @@
       <c r="Q364" s="1"/>
       <c r="R364" s="1"/>
       <c r="S364" s="1"/>
-      <c r="T364" s="3"/>
-    </row>
-    <row r="365" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="T364" s="1"/>
+      <c r="U364" s="3"/>
+    </row>
+    <row r="365" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A365" s="4"/>
       <c r="B365" s="1"/>
       <c r="C365" s="1"/>
@@ -10601,9 +11076,10 @@
       <c r="Q365" s="1"/>
       <c r="R365" s="1"/>
       <c r="S365" s="1"/>
-      <c r="T365" s="3"/>
-    </row>
-    <row r="366" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="T365" s="1"/>
+      <c r="U365" s="3"/>
+    </row>
+    <row r="366" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A366" s="4"/>
       <c r="B366" s="1"/>
       <c r="C366" s="1"/>
@@ -10621,9 +11097,10 @@
       <c r="Q366" s="1"/>
       <c r="R366" s="1"/>
       <c r="S366" s="1"/>
-      <c r="T366" s="3"/>
-    </row>
-    <row r="367" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="T366" s="1"/>
+      <c r="U366" s="3"/>
+    </row>
+    <row r="367" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A367" s="4"/>
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>
@@ -10641,9 +11118,10 @@
       <c r="Q367" s="1"/>
       <c r="R367" s="1"/>
       <c r="S367" s="1"/>
-      <c r="T367" s="3"/>
-    </row>
-    <row r="368" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="T367" s="1"/>
+      <c r="U367" s="3"/>
+    </row>
+    <row r="368" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A368" s="4"/>
       <c r="B368" s="1"/>
       <c r="C368" s="1"/>
@@ -10661,9 +11139,10 @@
       <c r="Q368" s="1"/>
       <c r="R368" s="1"/>
       <c r="S368" s="1"/>
-      <c r="T368" s="3"/>
-    </row>
-    <row r="369" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T368" s="1"/>
+      <c r="U368" s="3"/>
+    </row>
+    <row r="369" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A369" s="4"/>
       <c r="B369" s="1"/>
       <c r="C369" s="1"/>
@@ -10681,9 +11160,10 @@
       <c r="Q369" s="1"/>
       <c r="R369" s="1"/>
       <c r="S369" s="1"/>
-      <c r="T369" s="3"/>
-    </row>
-    <row r="370" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T369" s="1"/>
+      <c r="U369" s="3"/>
+    </row>
+    <row r="370" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A370" s="4"/>
       <c r="B370" s="1"/>
       <c r="C370" s="1"/>
@@ -10701,9 +11181,10 @@
       <c r="Q370" s="1"/>
       <c r="R370" s="1"/>
       <c r="S370" s="1"/>
-      <c r="T370" s="3"/>
-    </row>
-    <row r="371" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T370" s="1"/>
+      <c r="U370" s="3"/>
+    </row>
+    <row r="371" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A371" s="4"/>
       <c r="B371" s="1"/>
       <c r="C371" s="1"/>
@@ -10721,9 +11202,10 @@
       <c r="Q371" s="1"/>
       <c r="R371" s="1"/>
       <c r="S371" s="1"/>
-      <c r="T371" s="3"/>
-    </row>
-    <row r="372" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T371" s="1"/>
+      <c r="U371" s="3"/>
+    </row>
+    <row r="372" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A372" s="4"/>
       <c r="B372" s="1"/>
       <c r="C372" s="1"/>
@@ -10741,9 +11223,10 @@
       <c r="Q372" s="1"/>
       <c r="R372" s="1"/>
       <c r="S372" s="1"/>
-      <c r="T372" s="3"/>
-    </row>
-    <row r="373" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T372" s="1"/>
+      <c r="U372" s="3"/>
+    </row>
+    <row r="373" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A373" s="4"/>
       <c r="B373" s="1"/>
       <c r="C373" s="1"/>
@@ -10761,9 +11244,10 @@
       <c r="Q373" s="1"/>
       <c r="R373" s="1"/>
       <c r="S373" s="1"/>
-      <c r="T373" s="3"/>
-    </row>
-    <row r="374" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T373" s="1"/>
+      <c r="U373" s="3"/>
+    </row>
+    <row r="374" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A374" s="4"/>
       <c r="B374" s="1"/>
       <c r="C374" s="1"/>
@@ -10781,9 +11265,10 @@
       <c r="Q374" s="1"/>
       <c r="R374" s="1"/>
       <c r="S374" s="1"/>
-      <c r="T374" s="3"/>
-    </row>
-    <row r="375" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T374" s="1"/>
+      <c r="U374" s="3"/>
+    </row>
+    <row r="375" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A375" s="4"/>
       <c r="B375" s="1"/>
       <c r="C375" s="1"/>
@@ -10801,9 +11286,10 @@
       <c r="Q375" s="1"/>
       <c r="R375" s="1"/>
       <c r="S375" s="1"/>
-      <c r="T375" s="3"/>
-    </row>
-    <row r="376" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T375" s="1"/>
+      <c r="U375" s="3"/>
+    </row>
+    <row r="376" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A376" s="4"/>
       <c r="B376" s="1"/>
       <c r="C376" s="1"/>
@@ -10821,9 +11307,10 @@
       <c r="Q376" s="1"/>
       <c r="R376" s="1"/>
       <c r="S376" s="1"/>
-      <c r="T376" s="3"/>
-    </row>
-    <row r="377" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T376" s="1"/>
+      <c r="U376" s="3"/>
+    </row>
+    <row r="377" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A377" s="4"/>
       <c r="B377" s="1"/>
       <c r="C377" s="1"/>
@@ -10841,9 +11328,10 @@
       <c r="Q377" s="1"/>
       <c r="R377" s="1"/>
       <c r="S377" s="1"/>
-      <c r="T377" s="3"/>
-    </row>
-    <row r="378" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T377" s="1"/>
+      <c r="U377" s="3"/>
+    </row>
+    <row r="378" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A378" s="4"/>
       <c r="B378" s="1"/>
       <c r="C378" s="1"/>
@@ -10861,9 +11349,10 @@
       <c r="Q378" s="1"/>
       <c r="R378" s="1"/>
       <c r="S378" s="1"/>
-      <c r="T378" s="3"/>
-    </row>
-    <row r="379" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T378" s="1"/>
+      <c r="U378" s="3"/>
+    </row>
+    <row r="379" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A379" s="4"/>
       <c r="B379" s="1"/>
       <c r="C379" s="1"/>
@@ -10881,9 +11370,10 @@
       <c r="Q379" s="1"/>
       <c r="R379" s="1"/>
       <c r="S379" s="1"/>
-      <c r="T379" s="3"/>
-    </row>
-    <row r="380" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T379" s="1"/>
+      <c r="U379" s="3"/>
+    </row>
+    <row r="380" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A380" s="4"/>
       <c r="B380" s="1"/>
       <c r="C380" s="1"/>
@@ -10901,9 +11391,10 @@
       <c r="Q380" s="1"/>
       <c r="R380" s="1"/>
       <c r="S380" s="1"/>
-      <c r="T380" s="3"/>
-    </row>
-    <row r="381" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T380" s="1"/>
+      <c r="U380" s="3"/>
+    </row>
+    <row r="381" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A381" s="4"/>
       <c r="B381" s="1"/>
       <c r="C381" s="1"/>
@@ -10921,9 +11412,10 @@
       <c r="Q381" s="1"/>
       <c r="R381" s="1"/>
       <c r="S381" s="1"/>
-      <c r="T381" s="3"/>
-    </row>
-    <row r="382" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T381" s="1"/>
+      <c r="U381" s="3"/>
+    </row>
+    <row r="382" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A382" s="4"/>
       <c r="B382" s="1"/>
       <c r="C382" s="1"/>
@@ -10941,9 +11433,10 @@
       <c r="Q382" s="1"/>
       <c r="R382" s="1"/>
       <c r="S382" s="1"/>
-      <c r="T382" s="3"/>
-    </row>
-    <row r="383" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T382" s="1"/>
+      <c r="U382" s="3"/>
+    </row>
+    <row r="383" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A383" s="4"/>
       <c r="B383" s="1"/>
       <c r="C383" s="1"/>
@@ -10961,9 +11454,10 @@
       <c r="Q383" s="1"/>
       <c r="R383" s="1"/>
       <c r="S383" s="1"/>
-      <c r="T383" s="3"/>
-    </row>
-    <row r="384" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T383" s="1"/>
+      <c r="U383" s="3"/>
+    </row>
+    <row r="384" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A384" s="4"/>
       <c r="B384" s="1"/>
       <c r="C384" s="1"/>
@@ -10981,9 +11475,10 @@
       <c r="Q384" s="1"/>
       <c r="R384" s="1"/>
       <c r="S384" s="1"/>
-      <c r="T384" s="3"/>
-    </row>
-    <row r="385" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T384" s="1"/>
+      <c r="U384" s="3"/>
+    </row>
+    <row r="385" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A385" s="4"/>
       <c r="B385" s="1"/>
       <c r="C385" s="1"/>
@@ -11001,9 +11496,10 @@
       <c r="Q385" s="1"/>
       <c r="R385" s="1"/>
       <c r="S385" s="1"/>
-      <c r="T385" s="3"/>
-    </row>
-    <row r="386" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T385" s="1"/>
+      <c r="U385" s="3"/>
+    </row>
+    <row r="386" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A386" s="4"/>
       <c r="B386" s="1"/>
       <c r="C386" s="1"/>
@@ -11021,9 +11517,10 @@
       <c r="Q386" s="1"/>
       <c r="R386" s="1"/>
       <c r="S386" s="1"/>
-      <c r="T386" s="3"/>
-    </row>
-    <row r="387" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T386" s="1"/>
+      <c r="U386" s="3"/>
+    </row>
+    <row r="387" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A387" s="4"/>
       <c r="B387" s="1"/>
       <c r="C387" s="1"/>
@@ -11041,9 +11538,10 @@
       <c r="Q387" s="1"/>
       <c r="R387" s="1"/>
       <c r="S387" s="1"/>
-      <c r="T387" s="3"/>
-    </row>
-    <row r="388" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T387" s="1"/>
+      <c r="U387" s="3"/>
+    </row>
+    <row r="388" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A388" s="4"/>
       <c r="B388" s="1"/>
       <c r="C388" s="1"/>
@@ -11061,9 +11559,10 @@
       <c r="Q388" s="1"/>
       <c r="R388" s="1"/>
       <c r="S388" s="1"/>
-      <c r="T388" s="3"/>
-    </row>
-    <row r="389" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T388" s="1"/>
+      <c r="U388" s="3"/>
+    </row>
+    <row r="389" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A389" s="4"/>
       <c r="B389" s="1"/>
       <c r="C389" s="1"/>
@@ -11081,9 +11580,10 @@
       <c r="Q389" s="1"/>
       <c r="R389" s="1"/>
       <c r="S389" s="1"/>
-      <c r="T389" s="3"/>
-    </row>
-    <row r="390" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T389" s="1"/>
+      <c r="U389" s="3"/>
+    </row>
+    <row r="390" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A390" s="4"/>
       <c r="B390" s="1"/>
       <c r="C390" s="1"/>
@@ -11101,9 +11601,10 @@
       <c r="Q390" s="1"/>
       <c r="R390" s="1"/>
       <c r="S390" s="1"/>
-      <c r="T390" s="3"/>
-    </row>
-    <row r="391" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T390" s="1"/>
+      <c r="U390" s="3"/>
+    </row>
+    <row r="391" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A391" s="4"/>
       <c r="B391" s="1"/>
       <c r="C391" s="1"/>
@@ -11121,9 +11622,10 @@
       <c r="Q391" s="1"/>
       <c r="R391" s="1"/>
       <c r="S391" s="1"/>
-      <c r="T391" s="3"/>
-    </row>
-    <row r="392" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T391" s="1"/>
+      <c r="U391" s="3"/>
+    </row>
+    <row r="392" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A392" s="4"/>
       <c r="B392" s="1"/>
       <c r="C392" s="1"/>
@@ -11141,9 +11643,10 @@
       <c r="Q392" s="1"/>
       <c r="R392" s="1"/>
       <c r="S392" s="1"/>
-      <c r="T392" s="3"/>
-    </row>
-    <row r="393" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T392" s="1"/>
+      <c r="U392" s="3"/>
+    </row>
+    <row r="393" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A393" s="4"/>
       <c r="B393" s="1"/>
       <c r="C393" s="1"/>
@@ -11161,9 +11664,10 @@
       <c r="Q393" s="1"/>
       <c r="R393" s="1"/>
       <c r="S393" s="1"/>
-      <c r="T393" s="3"/>
-    </row>
-    <row r="394" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T393" s="1"/>
+      <c r="U393" s="3"/>
+    </row>
+    <row r="394" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A394" s="4"/>
       <c r="B394" s="1"/>
       <c r="C394" s="1"/>
@@ -11181,9 +11685,10 @@
       <c r="Q394" s="1"/>
       <c r="R394" s="1"/>
       <c r="S394" s="1"/>
-      <c r="T394" s="3"/>
-    </row>
-    <row r="395" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T394" s="1"/>
+      <c r="U394" s="3"/>
+    </row>
+    <row r="395" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A395" s="4"/>
       <c r="B395" s="1"/>
       <c r="C395" s="1"/>
@@ -11201,9 +11706,10 @@
       <c r="Q395" s="1"/>
       <c r="R395" s="1"/>
       <c r="S395" s="1"/>
-      <c r="T395" s="3"/>
-    </row>
-    <row r="396" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T395" s="1"/>
+      <c r="U395" s="3"/>
+    </row>
+    <row r="396" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A396" s="4"/>
       <c r="B396" s="1"/>
       <c r="C396" s="1"/>
@@ -11221,9 +11727,10 @@
       <c r="Q396" s="1"/>
       <c r="R396" s="1"/>
       <c r="S396" s="1"/>
-      <c r="T396" s="3"/>
-    </row>
-    <row r="397" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T396" s="1"/>
+      <c r="U396" s="3"/>
+    </row>
+    <row r="397" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A397" s="4"/>
       <c r="B397" s="1"/>
       <c r="C397" s="1"/>
@@ -11241,9 +11748,10 @@
       <c r="Q397" s="1"/>
       <c r="R397" s="1"/>
       <c r="S397" s="1"/>
-      <c r="T397" s="3"/>
-    </row>
-    <row r="398" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T397" s="1"/>
+      <c r="U397" s="3"/>
+    </row>
+    <row r="398" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A398" s="4"/>
       <c r="B398" s="1"/>
       <c r="C398" s="1"/>
@@ -11261,9 +11769,10 @@
       <c r="Q398" s="1"/>
       <c r="R398" s="1"/>
       <c r="S398" s="1"/>
-      <c r="T398" s="3"/>
-    </row>
-    <row r="399" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T398" s="1"/>
+      <c r="U398" s="3"/>
+    </row>
+    <row r="399" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A399" s="4"/>
       <c r="B399" s="1"/>
       <c r="C399" s="1"/>
@@ -11281,9 +11790,10 @@
       <c r="Q399" s="1"/>
       <c r="R399" s="1"/>
       <c r="S399" s="1"/>
-      <c r="T399" s="3"/>
-    </row>
-    <row r="400" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T399" s="1"/>
+      <c r="U399" s="3"/>
+    </row>
+    <row r="400" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A400" s="4"/>
       <c r="B400" s="1"/>
       <c r="C400" s="1"/>
@@ -11301,9 +11811,10 @@
       <c r="Q400" s="1"/>
       <c r="R400" s="1"/>
       <c r="S400" s="1"/>
-      <c r="T400" s="3"/>
-    </row>
-    <row r="401" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="T400" s="1"/>
+      <c r="U400" s="3"/>
+    </row>
+    <row r="401" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A401" s="4"/>
       <c r="B401" s="1"/>
       <c r="C401" s="1"/>
@@ -11321,9 +11832,10 @@
       <c r="Q401" s="1"/>
       <c r="R401" s="1"/>
       <c r="S401" s="1"/>
-      <c r="T401" s="3"/>
-    </row>
-    <row r="402" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="T401" s="1"/>
+      <c r="U401" s="3"/>
+    </row>
+    <row r="402" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A402" s="4"/>
       <c r="B402" s="1"/>
       <c r="C402" s="1"/>
@@ -11341,11 +11853,12 @@
       <c r="Q402" s="1"/>
       <c r="R402" s="1"/>
       <c r="S402" s="1"/>
-      <c r="T402" s="3"/>
-      <c r="U402" s="6"/>
+      <c r="T402" s="1"/>
+      <c r="U402" s="3"/>
       <c r="V402" s="6"/>
-    </row>
-    <row r="403" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="W402" s="6"/>
+    </row>
+    <row r="403" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A403" s="4"/>
       <c r="B403" s="1"/>
       <c r="C403" s="1"/>
@@ -11363,11 +11876,12 @@
       <c r="Q403" s="1"/>
       <c r="R403" s="1"/>
       <c r="S403" s="1"/>
-      <c r="T403" s="3"/>
-      <c r="U403" s="6"/>
+      <c r="T403" s="1"/>
+      <c r="U403" s="3"/>
       <c r="V403" s="6"/>
-    </row>
-    <row r="404" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="W403" s="6"/>
+    </row>
+    <row r="404" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A404" s="4"/>
       <c r="B404" s="1"/>
       <c r="C404" s="1"/>
@@ -11385,11 +11899,12 @@
       <c r="Q404" s="1"/>
       <c r="R404" s="1"/>
       <c r="S404" s="1"/>
-      <c r="T404" s="3"/>
-      <c r="U404" s="6"/>
+      <c r="T404" s="1"/>
+      <c r="U404" s="3"/>
       <c r="V404" s="6"/>
-    </row>
-    <row r="405" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="W404" s="6"/>
+    </row>
+    <row r="405" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A405" s="4"/>
       <c r="B405" s="1"/>
       <c r="C405" s="1"/>
@@ -11407,11 +11922,12 @@
       <c r="Q405" s="1"/>
       <c r="R405" s="1"/>
       <c r="S405" s="1"/>
-      <c r="T405" s="3"/>
-      <c r="U405" s="6"/>
+      <c r="T405" s="1"/>
+      <c r="U405" s="3"/>
       <c r="V405" s="6"/>
-    </row>
-    <row r="406" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="W405" s="6"/>
+    </row>
+    <row r="406" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A406" s="4"/>
       <c r="B406" s="1"/>
       <c r="C406" s="1"/>
@@ -11429,11 +11945,12 @@
       <c r="Q406" s="1"/>
       <c r="R406" s="1"/>
       <c r="S406" s="1"/>
-      <c r="T406" s="3"/>
-      <c r="U406" s="6"/>
+      <c r="T406" s="1"/>
+      <c r="U406" s="3"/>
       <c r="V406" s="6"/>
-    </row>
-    <row r="407" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="W406" s="6"/>
+    </row>
+    <row r="407" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A407" s="4"/>
       <c r="B407" s="1"/>
       <c r="C407" s="1"/>
@@ -11451,12 +11968,13 @@
       <c r="Q407" s="1"/>
       <c r="R407" s="1"/>
       <c r="S407" s="1"/>
-      <c r="T407" s="3"/>
-      <c r="U407" s="6"/>
+      <c r="T407" s="1"/>
+      <c r="U407" s="3"/>
       <c r="V407" s="6"/>
-      <c r="Z407" s="5"/>
-    </row>
-    <row r="408" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="W407" s="6"/>
+      <c r="AA407" s="5"/>
+    </row>
+    <row r="408" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A408" s="4"/>
       <c r="B408" s="1"/>
       <c r="C408" s="1"/>
@@ -11474,12 +11992,13 @@
       <c r="Q408" s="1"/>
       <c r="R408" s="1"/>
       <c r="S408" s="1"/>
-      <c r="T408" s="3"/>
-      <c r="U408" s="6"/>
+      <c r="T408" s="1"/>
+      <c r="U408" s="3"/>
       <c r="V408" s="6"/>
-      <c r="Z408" s="5"/>
-    </row>
-    <row r="409" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="W408" s="6"/>
+      <c r="AA408" s="5"/>
+    </row>
+    <row r="409" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A409" s="4"/>
       <c r="B409" s="1"/>
       <c r="C409" s="1"/>
@@ -11497,12 +12016,13 @@
       <c r="Q409" s="1"/>
       <c r="R409" s="1"/>
       <c r="S409" s="1"/>
-      <c r="T409" s="3"/>
-      <c r="U409" s="6"/>
+      <c r="T409" s="1"/>
+      <c r="U409" s="3"/>
       <c r="V409" s="6"/>
-      <c r="Z409" s="5"/>
-    </row>
-    <row r="410" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="W409" s="6"/>
+      <c r="AA409" s="5"/>
+    </row>
+    <row r="410" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A410" s="4"/>
       <c r="B410" s="1"/>
       <c r="C410" s="1"/>
@@ -11520,12 +12040,13 @@
       <c r="Q410" s="1"/>
       <c r="R410" s="1"/>
       <c r="S410" s="1"/>
-      <c r="T410" s="3"/>
-      <c r="U410" s="6"/>
+      <c r="T410" s="1"/>
+      <c r="U410" s="3"/>
       <c r="V410" s="6"/>
-      <c r="Z410" s="5"/>
-    </row>
-    <row r="411" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="W410" s="6"/>
+      <c r="AA410" s="5"/>
+    </row>
+    <row r="411" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A411" s="4"/>
       <c r="B411" s="1"/>
       <c r="C411" s="1"/>
@@ -11543,12 +12064,13 @@
       <c r="Q411" s="1"/>
       <c r="R411" s="1"/>
       <c r="S411" s="1"/>
-      <c r="T411" s="3"/>
-      <c r="U411" s="6"/>
+      <c r="T411" s="1"/>
+      <c r="U411" s="3"/>
       <c r="V411" s="6"/>
-      <c r="Z411" s="5"/>
-    </row>
-    <row r="412" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="W411" s="6"/>
+      <c r="AA411" s="5"/>
+    </row>
+    <row r="412" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A412" s="4"/>
       <c r="B412" s="1"/>
       <c r="C412" s="1"/>
@@ -11566,10 +12088,11 @@
       <c r="Q412" s="1"/>
       <c r="R412" s="1"/>
       <c r="S412" s="1"/>
-      <c r="T412" s="3"/>
-      <c r="U412" s="6"/>
+      <c r="T412" s="1"/>
+      <c r="U412" s="3"/>
       <c r="V412" s="6"/>
-      <c r="Z412" s="5"/>
+      <c r="W412" s="6"/>
+      <c r="AA412" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11581,8 +12104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:XFD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Input Data/DevTesting/DevTesting_IC.avg.xlsx
+++ b/Input Data/DevTesting/DevTesting_IC.avg.xlsx
@@ -512,7 +512,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U42" sqref="U42"/>
+      <selection pane="bottomRight" activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Input Data/DevTesting/DevTesting_IC.avg.xlsx
+++ b/Input Data/DevTesting/DevTesting_IC.avg.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12440"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12440" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Reservoirs" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="50">
   <si>
     <t>NaN</t>
   </si>
@@ -508,11 +508,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA412"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T1" sqref="T1"/>
+      <selection pane="bottomRight" activeCell="K17" sqref="G17:K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12104,8 +12104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:XFD30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12187,11 +12187,11 @@
       <c r="A4" s="4">
         <v>43831</v>
       </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>0</v>
+      <c r="B4">
+        <v>1.4</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
       </c>
       <c r="D4" t="s">
         <v>0</v>
@@ -12210,11 +12210,11 @@
       <c r="A5" s="4">
         <v>44197</v>
       </c>
-      <c r="B5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
-        <v>0</v>
+      <c r="B5">
+        <v>1.4</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
       </c>
       <c r="D5" t="s">
         <v>0</v>

--- a/Input Data/DevTesting/DevTesting_IC.avg.xlsx
+++ b/Input Data/DevTesting/DevTesting_IC.avg.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="50">
   <si>
     <t>NaN</t>
   </si>
@@ -509,10 +509,10 @@
   <dimension ref="A1:AA412"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K17" sqref="G17:K17"/>
+      <selection pane="bottomRight" activeCell="S15" sqref="S15:S26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12105,7 +12105,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12196,8 +12196,8 @@
       <c r="D4" t="s">
         <v>0</v>
       </c>
-      <c r="E4" t="s">
-        <v>0</v>
+      <c r="E4">
+        <v>9000000</v>
       </c>
       <c r="F4">
         <v>3602.46</v>
